--- a/capiq_data/in_process_data/IQ21835.xlsx
+++ b/capiq_data/in_process_data/IQ21835.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A75CF9-0A29-41D5-96E6-767585176549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC630B7-6B99-4E78-A621-D094FC0F2CFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"65474678-0d10-4fd8-96e7-e4f91ab23d28"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"3a8286a8-16c0-4be1-b781-824627a82bd6"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>6634</v>
+        <v>2624</v>
       </c>
       <c r="D2">
-        <v>19953</v>
+        <v>6550</v>
       </c>
       <c r="E2">
-        <v>12874</v>
+        <v>4143</v>
       </c>
       <c r="F2">
-        <v>15120</v>
+        <v>5686</v>
       </c>
       <c r="G2">
-        <v>59684</v>
+        <v>35016</v>
       </c>
       <c r="H2">
-        <v>92306</v>
+        <v>57691</v>
       </c>
       <c r="I2">
-        <v>3863</v>
+        <v>1262</v>
       </c>
       <c r="J2">
-        <v>9671</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1355</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>24312</v>
+        <v>9625</v>
       </c>
       <c r="O2">
-        <v>43825</v>
+        <v>11269</v>
       </c>
       <c r="P2">
-        <v>11032</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-4138</v>
+        <v>890</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>48481</v>
+        <v>46422</v>
       </c>
       <c r="U2">
-        <v>4023</v>
+        <v>3531</v>
       </c>
       <c r="V2">
-        <v>4186</v>
+        <v>2919</v>
       </c>
       <c r="W2">
-        <v>-1363</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-6751</v>
+        <v>-1636</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-1457</v>
+        <v>-46</v>
       </c>
       <c r="AA2">
-        <v>6634</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>5232</v>
+        <v>2451</v>
       </c>
       <c r="D3">
-        <v>16428</v>
+        <v>6403</v>
       </c>
       <c r="E3">
-        <v>10033</v>
+        <v>3532</v>
       </c>
       <c r="F3">
-        <v>12531</v>
+        <v>5504</v>
       </c>
       <c r="G3">
-        <v>66263</v>
+        <v>37789</v>
       </c>
       <c r="H3">
-        <v>99727</v>
+        <v>59605</v>
       </c>
       <c r="I3">
-        <v>3829</v>
+        <v>1246</v>
       </c>
       <c r="J3">
-        <v>11915</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24042</v>
+        <v>9740</v>
       </c>
       <c r="O3">
-        <v>46275</v>
+        <v>11515</v>
       </c>
       <c r="P3">
-        <v>13165</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2998</v>
+        <v>618</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>53452</v>
+        <v>48090</v>
       </c>
       <c r="U3">
-        <v>7021</v>
+        <v>4149</v>
       </c>
       <c r="V3">
-        <v>8672</v>
+        <v>3964</v>
       </c>
       <c r="W3">
-        <v>-1349</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1437</v>
+        <v>-1023</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-6370</v>
+        <v>-2067</v>
       </c>
       <c r="AA3">
-        <v>5232</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>5874</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>17367</v>
+        <v>6577</v>
       </c>
       <c r="E4">
-        <v>14987</v>
+        <v>3671</v>
       </c>
       <c r="F4">
-        <v>13659</v>
+        <v>5710</v>
       </c>
       <c r="G4">
-        <v>74918</v>
+        <v>39210</v>
       </c>
       <c r="H4">
-        <v>108704</v>
+        <v>58830</v>
       </c>
       <c r="I4">
-        <v>4197</v>
+        <v>1188</v>
       </c>
       <c r="J4">
-        <v>11921</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>28774</v>
+        <v>9254</v>
       </c>
       <c r="O4">
-        <v>51621</v>
+        <v>11541</v>
       </c>
       <c r="P4">
-        <v>13138</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2589</v>
+        <v>-227</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>90000</v>
+        <v>47600</v>
       </c>
       <c r="T4">
-        <v>57083</v>
+        <v>47289</v>
       </c>
       <c r="U4">
-        <v>9610</v>
+        <v>3922</v>
       </c>
       <c r="V4">
-        <v>5942</v>
+        <v>3579</v>
       </c>
       <c r="W4">
-        <v>-1350</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-2423</v>
+        <v>-1631</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-269</v>
+        <v>-1827</v>
       </c>
       <c r="AA4">
-        <v>5874</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>5738</v>
+        <v>1283</v>
       </c>
       <c r="D5">
-        <v>17372</v>
+        <v>6126</v>
       </c>
       <c r="E5">
-        <v>10153</v>
+        <v>3615</v>
       </c>
       <c r="F5">
-        <v>13595</v>
+        <v>5242</v>
       </c>
       <c r="G5">
-        <v>75271</v>
+        <v>44332</v>
       </c>
       <c r="H5">
-        <v>107415</v>
+        <v>61367</v>
       </c>
       <c r="I5">
-        <v>3719</v>
+        <v>1143</v>
       </c>
       <c r="J5">
-        <v>11927</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1141</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>25543</v>
+        <v>12862</v>
       </c>
       <c r="O5">
-        <v>48024</v>
+        <v>12862</v>
       </c>
       <c r="P5">
-        <v>13097</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3271</v>
+        <v>-809</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>59391</v>
+        <v>48505</v>
       </c>
       <c r="U5">
-        <v>12881</v>
+        <v>3113</v>
       </c>
       <c r="V5">
-        <v>8493</v>
+        <v>3389</v>
       </c>
       <c r="W5">
-        <v>-1341</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-2869</v>
+        <v>-734</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-938</v>
+        <v>-3319</v>
       </c>
       <c r="AA5">
-        <v>5738</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>6624</v>
+        <v>2283</v>
       </c>
       <c r="D6">
-        <v>20885</v>
+        <v>7741</v>
       </c>
       <c r="E6">
-        <v>13643</v>
+        <v>5095</v>
       </c>
       <c r="F6">
-        <v>15247</v>
+        <v>6197</v>
       </c>
       <c r="G6">
-        <v>72513</v>
+        <v>47988</v>
       </c>
       <c r="H6">
-        <v>112243</v>
+        <v>65387</v>
       </c>
       <c r="I6">
-        <v>3884</v>
+        <v>1229</v>
       </c>
       <c r="J6">
-        <v>11932</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>849</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,81 +1224,81 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>25373</v>
+        <v>11567</v>
       </c>
       <c r="O6">
-        <v>48122</v>
+        <v>13839</v>
       </c>
       <c r="P6">
-        <v>12803</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>-2271</v>
+        <v>2143</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>64121</v>
+        <v>51548</v>
       </c>
       <c r="U6">
-        <v>10610</v>
+        <v>5256</v>
       </c>
       <c r="V6">
-        <v>5862</v>
+        <v>3565</v>
       </c>
       <c r="W6">
-        <v>-1683</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-2513</v>
+        <v>254</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>3849</v>
+        <v>-1508</v>
       </c>
       <c r="AA6">
-        <v>6624</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>5108</v>
+        <v>2738</v>
       </c>
       <c r="D7">
-        <v>17407</v>
+        <v>7245</v>
       </c>
       <c r="E7">
-        <v>10961</v>
+        <v>4230</v>
       </c>
       <c r="F7">
-        <v>13455</v>
+        <v>5850</v>
       </c>
       <c r="G7">
-        <v>76860</v>
+        <v>47827</v>
       </c>
       <c r="H7">
-        <v>118010</v>
+        <v>68379</v>
       </c>
       <c r="I7">
-        <v>3790</v>
+        <v>1136</v>
       </c>
       <c r="J7">
-        <v>11938</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1210</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>26170</v>
+        <v>11842</v>
       </c>
       <c r="O7">
-        <v>49351</v>
+        <v>14079</v>
       </c>
       <c r="P7">
-        <v>13148</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>-4222</v>
+        <v>-140</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>68659</v>
+        <v>54300</v>
       </c>
       <c r="U7">
-        <v>6388</v>
+        <v>5116</v>
       </c>
       <c r="V7">
-        <v>9594</v>
+        <v>4121</v>
       </c>
       <c r="W7">
-        <v>-1683</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-1605</v>
+        <v>-251</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-11769</v>
+        <v>-3830</v>
       </c>
       <c r="AA7">
-        <v>5108</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>-492</v>
+        <v>1525</v>
       </c>
       <c r="D8">
-        <v>18059</v>
+        <v>7253</v>
       </c>
       <c r="E8">
-        <v>15780</v>
+        <v>5129</v>
       </c>
       <c r="F8">
-        <v>13896</v>
+        <v>5885</v>
       </c>
       <c r="G8">
-        <v>85084</v>
+        <v>48576</v>
       </c>
       <c r="H8">
-        <v>121271</v>
+        <v>67646</v>
       </c>
       <c r="I8">
-        <v>4175</v>
+        <v>1208</v>
       </c>
       <c r="J8">
-        <v>10713</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>32688</v>
+        <v>12744</v>
       </c>
       <c r="O8">
-        <v>54908</v>
+        <v>15466</v>
       </c>
       <c r="P8">
-        <v>12775</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>550</v>
+        <v>-2100</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>94000</v>
+        <v>50500</v>
       </c>
       <c r="T8">
-        <v>66363</v>
+        <v>52180</v>
       </c>
       <c r="U8">
-        <v>6938</v>
+        <v>3016</v>
       </c>
       <c r="V8">
-        <v>7677</v>
+        <v>3434</v>
       </c>
       <c r="W8">
-        <v>-1678</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-2421</v>
+        <v>-3841</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-3117</v>
+        <v>-1418</v>
       </c>
       <c r="AA8">
-        <v>-492</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>4466</v>
+        <v>2041</v>
       </c>
       <c r="D9">
-        <v>16008</v>
+        <v>7746</v>
       </c>
       <c r="E9">
-        <v>9871</v>
+        <v>4450</v>
       </c>
       <c r="F9">
-        <v>11840</v>
+        <v>6402</v>
       </c>
       <c r="G9">
-        <v>84051</v>
+        <v>50043</v>
       </c>
       <c r="H9">
-        <v>121876</v>
+        <v>70235</v>
       </c>
       <c r="I9">
-        <v>3631</v>
+        <v>1189</v>
       </c>
       <c r="J9">
-        <v>9714</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>31402</v>
+        <v>13757</v>
       </c>
       <c r="O9">
-        <v>53040</v>
+        <v>16719</v>
       </c>
       <c r="P9">
-        <v>12374</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>-1902</v>
+        <v>2322</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>68836</v>
+        <v>53516</v>
       </c>
       <c r="U9">
-        <v>5036</v>
+        <v>5338</v>
       </c>
       <c r="V9">
-        <v>8484</v>
+        <v>6172</v>
       </c>
       <c r="W9">
-        <v>-1676</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-2714</v>
+        <v>-2958</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-5572</v>
+        <v>133</v>
       </c>
       <c r="AA9">
-        <v>4466</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>6377</v>
+        <v>1865</v>
       </c>
       <c r="D10">
-        <v>21456</v>
+        <v>8541</v>
       </c>
       <c r="E10">
-        <v>14317</v>
+        <v>4894</v>
       </c>
       <c r="F10">
-        <v>15764</v>
+        <v>6404</v>
       </c>
       <c r="G10">
-        <v>89574</v>
+        <v>52931</v>
       </c>
       <c r="H10">
-        <v>128683</v>
+        <v>72359</v>
       </c>
       <c r="I10">
-        <v>4356</v>
+        <v>1342</v>
       </c>
       <c r="J10">
-        <v>11947</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,81 +1556,81 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>31910</v>
+        <v>13617</v>
       </c>
       <c r="O10">
-        <v>56107</v>
+        <v>16547</v>
       </c>
       <c r="P10">
-        <v>14218</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>981</v>
+        <v>214</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>72576</v>
+        <v>55812</v>
       </c>
       <c r="U10">
-        <v>6017</v>
+        <v>5552</v>
       </c>
       <c r="V10">
-        <v>4780</v>
+        <v>2767</v>
       </c>
       <c r="W10">
-        <v>-1933</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-1221</v>
+        <v>-571</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-959</v>
+        <v>-1734</v>
       </c>
       <c r="AA10">
-        <v>6377</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>6055</v>
+        <v>2142</v>
       </c>
       <c r="D11">
-        <v>20489</v>
+        <v>7835</v>
       </c>
       <c r="E11">
-        <v>11991</v>
+        <v>4075</v>
       </c>
       <c r="F11">
-        <v>15702</v>
+        <v>6561</v>
       </c>
       <c r="G11">
-        <v>93524</v>
+        <v>54672</v>
       </c>
       <c r="H11">
-        <v>134105</v>
+        <v>74482</v>
       </c>
       <c r="I11">
-        <v>4532</v>
+        <v>1310</v>
       </c>
       <c r="J11">
-        <v>11949</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31929</v>
+        <v>13161</v>
       </c>
       <c r="O11">
-        <v>57417</v>
+        <v>16200</v>
       </c>
       <c r="P11">
-        <v>14765</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>-777</v>
+        <v>-1252</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>76688</v>
+        <v>58282</v>
       </c>
       <c r="U11">
-        <v>5240</v>
+        <v>4300</v>
       </c>
       <c r="V11">
-        <v>9666</v>
+        <v>4169</v>
       </c>
       <c r="W11">
-        <v>-1925</v>
+        <v>-857</v>
       </c>
       <c r="X11">
-        <v>-2744</v>
+        <v>-1211</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-7165</v>
+        <v>-4013</v>
       </c>
       <c r="AA11">
-        <v>6055</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>4965</v>
+        <v>1483</v>
       </c>
       <c r="D12">
-        <v>19896</v>
+        <v>8065</v>
       </c>
       <c r="E12">
-        <v>17486</v>
+        <v>5196</v>
       </c>
       <c r="F12">
-        <v>14294</v>
+        <v>6761</v>
       </c>
       <c r="G12">
-        <v>101466</v>
+        <v>58973</v>
       </c>
       <c r="H12">
-        <v>142431</v>
+        <v>81732</v>
       </c>
       <c r="I12">
-        <v>4828</v>
+        <v>1573</v>
       </c>
       <c r="J12">
-        <v>12601</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,330 +1722,330 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>37417</v>
+        <v>13974</v>
       </c>
       <c r="O12">
-        <v>63487</v>
+        <v>16820</v>
       </c>
       <c r="P12">
-        <v>16290</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-1436</v>
+        <v>2138</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>99000</v>
+        <v>55000</v>
       </c>
       <c r="T12">
-        <v>78944</v>
+        <v>64912</v>
       </c>
       <c r="U12">
-        <v>3804</v>
+        <v>6438</v>
       </c>
       <c r="V12">
-        <v>5903</v>
+        <v>2689</v>
       </c>
       <c r="W12">
-        <v>-1921</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-1469</v>
+        <v>-483</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-4106</v>
+        <v>355</v>
       </c>
       <c r="AA12">
-        <v>4965</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>5244</v>
+        <v>2614</v>
       </c>
       <c r="D13">
-        <v>18529</v>
+        <v>8215</v>
       </c>
       <c r="E13">
-        <v>11007</v>
+        <v>4533</v>
       </c>
       <c r="F13">
-        <v>13384</v>
+        <v>6735</v>
       </c>
       <c r="G13">
-        <v>99450</v>
+        <v>60910</v>
       </c>
       <c r="H13">
-        <v>142348</v>
+        <v>84281</v>
       </c>
       <c r="I13">
-        <v>4841</v>
+        <v>1341</v>
       </c>
       <c r="J13">
-        <v>12632</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1882</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>34623</v>
+        <v>15098</v>
       </c>
       <c r="O13">
-        <v>60707</v>
+        <v>17601</v>
       </c>
       <c r="P13">
-        <v>16525</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>219</v>
+        <v>-670</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>81641</v>
+        <v>66680</v>
       </c>
       <c r="U13">
-        <v>4023</v>
+        <v>5768</v>
       </c>
       <c r="V13">
-        <v>8205</v>
+        <v>3424</v>
       </c>
       <c r="W13">
-        <v>-1916</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-3396</v>
+        <v>-350</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-3304</v>
+        <v>-3577</v>
       </c>
       <c r="AA13">
-        <v>5244</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>6558</v>
+        <v>1549</v>
       </c>
       <c r="D14">
-        <v>24519</v>
+        <v>10153</v>
       </c>
       <c r="E14">
-        <v>15986</v>
+        <v>5608</v>
       </c>
       <c r="F14">
-        <v>16197</v>
+        <v>7809</v>
       </c>
       <c r="G14">
-        <v>106870</v>
+        <v>62400</v>
       </c>
       <c r="H14">
-        <v>153543</v>
+        <v>85937</v>
       </c>
       <c r="I14">
-        <v>5398</v>
+        <v>1360</v>
       </c>
       <c r="J14">
-        <v>20676</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1048</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>-712</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>-588</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>33742</v>
+        <v>13927</v>
       </c>
       <c r="O14">
-        <v>68443</v>
+        <v>16594</v>
       </c>
       <c r="P14">
-        <v>23724</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>6036</v>
+        <v>381</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>85100</v>
+        <v>69343</v>
       </c>
       <c r="U14">
-        <v>10059</v>
+        <v>6149</v>
       </c>
       <c r="V14">
-        <v>4413</v>
+        <v>4574</v>
       </c>
       <c r="W14">
-        <v>-2332</v>
+        <v>-1729</v>
       </c>
       <c r="X14">
-        <v>2615</v>
+        <v>-2270</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>679</v>
+        <v>-1777</v>
       </c>
       <c r="AA14">
-        <v>6558</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>5660</v>
+        <v>1315</v>
       </c>
       <c r="D15">
-        <v>20403</v>
+        <v>9175</v>
       </c>
       <c r="E15">
-        <v>13497</v>
+        <v>4937</v>
       </c>
       <c r="F15">
-        <v>14425</v>
+        <v>7764</v>
       </c>
       <c r="G15">
-        <v>109006</v>
+        <v>65270</v>
       </c>
       <c r="H15">
-        <v>156119</v>
+        <v>89767</v>
       </c>
       <c r="I15">
-        <v>4583</v>
+        <v>1412</v>
       </c>
       <c r="J15">
-        <v>20679</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>794</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>33903</v>
+        <v>15984</v>
       </c>
       <c r="O15">
-        <v>68695</v>
+        <v>19187</v>
       </c>
       <c r="P15">
-        <v>23473</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1513</v>
+        <v>2800</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>87424</v>
+        <v>70580</v>
       </c>
       <c r="U15">
-        <v>11572</v>
+        <v>9348</v>
       </c>
       <c r="V15">
-        <v>10099</v>
+        <v>4970</v>
       </c>
       <c r="W15">
-        <v>-2322</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-4304</v>
+        <v>-1040</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-2981</v>
+        <v>-924</v>
       </c>
       <c r="AA15">
-        <v>5660</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>4612</v>
+        <v>2690</v>
       </c>
       <c r="D16">
-        <v>23382</v>
+        <v>9292</v>
       </c>
       <c r="E16">
-        <v>19544</v>
+        <v>5890</v>
       </c>
       <c r="F16">
-        <v>15749</v>
+        <v>7811</v>
       </c>
       <c r="G16">
-        <v>114246</v>
+        <v>70566</v>
       </c>
       <c r="H16">
-        <v>172384</v>
+        <v>94368</v>
       </c>
       <c r="I16">
-        <v>7432</v>
+        <v>1717</v>
       </c>
       <c r="J16">
-        <v>20645</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2558</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,164 +2054,164 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>45625</v>
+        <v>14969</v>
       </c>
       <c r="O16">
-        <v>82600</v>
+        <v>19543</v>
       </c>
       <c r="P16">
-        <v>23203</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>-2903</v>
+        <v>6517</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>128000</v>
+        <v>57000</v>
       </c>
       <c r="T16">
-        <v>89784</v>
+        <v>74825</v>
       </c>
       <c r="U16">
-        <v>8669</v>
+        <v>14304</v>
       </c>
       <c r="V16">
-        <v>9514</v>
+        <v>1658</v>
       </c>
       <c r="W16">
-        <v>-2309</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-3309</v>
+        <v>1296</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-1718</v>
+        <v>4130</v>
       </c>
       <c r="AA16">
-        <v>4612</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>4540</v>
+        <v>2528</v>
       </c>
       <c r="D17">
-        <v>23201</v>
+        <v>9189</v>
       </c>
       <c r="E17">
-        <v>12887</v>
+        <v>5106</v>
       </c>
       <c r="F17">
-        <v>14928</v>
+        <v>7784</v>
       </c>
       <c r="G17">
-        <v>112439</v>
+        <v>72896</v>
       </c>
       <c r="H17">
-        <v>169656</v>
+        <v>94268</v>
       </c>
       <c r="I17">
-        <v>6769</v>
+        <v>1439</v>
       </c>
       <c r="J17">
-        <v>18472</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3691</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>44694</v>
+        <v>15811</v>
       </c>
       <c r="O17">
-        <v>79486</v>
+        <v>18322</v>
       </c>
       <c r="P17">
-        <v>23911</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-2367</v>
+        <v>-4842</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>90170</v>
+        <v>75946</v>
       </c>
       <c r="U17">
-        <v>6302</v>
+        <v>11141</v>
       </c>
       <c r="V17">
-        <v>8354</v>
+        <v>4007</v>
       </c>
       <c r="W17">
-        <v>-2307</v>
+        <v>-870</v>
       </c>
       <c r="X17">
-        <v>-2978</v>
+        <v>-738</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-5947</v>
+        <v>-7941</v>
       </c>
       <c r="AA17">
-        <v>4540</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>5863</v>
+        <v>3463</v>
       </c>
       <c r="D18">
-        <v>26470</v>
+        <v>10818</v>
       </c>
       <c r="E18">
-        <v>16186</v>
+        <v>6646</v>
       </c>
       <c r="F18">
-        <v>16334</v>
+        <v>8943</v>
       </c>
       <c r="G18">
-        <v>116362</v>
+        <v>44399</v>
       </c>
       <c r="H18">
-        <v>174848</v>
+        <v>64941</v>
       </c>
       <c r="I18">
-        <v>6932</v>
+        <v>1573</v>
       </c>
       <c r="J18">
-        <v>18260</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>8729</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>47415</v>
+        <v>15045</v>
       </c>
       <c r="O18">
-        <v>82969</v>
+        <v>17709</v>
       </c>
       <c r="P18">
-        <v>28738</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>124</v>
+        <v>-5904</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>91879</v>
+        <v>47232</v>
       </c>
       <c r="U18">
-        <v>6426</v>
+        <v>4556</v>
       </c>
       <c r="V18">
-        <v>4340</v>
+        <v>3619</v>
       </c>
       <c r="W18">
-        <v>-2547</v>
+        <v>-858</v>
       </c>
       <c r="X18">
-        <v>534</v>
+        <v>-33672</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-670</v>
+        <v>24272</v>
       </c>
       <c r="AA18">
-        <v>5863</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>4985</v>
+        <v>2563</v>
       </c>
       <c r="D19">
-        <v>21729</v>
+        <v>9620</v>
       </c>
       <c r="E19">
-        <v>12427</v>
+        <v>5610</v>
       </c>
       <c r="F19">
-        <v>14568</v>
+        <v>8257</v>
       </c>
       <c r="G19">
-        <v>118398</v>
+        <v>46593</v>
       </c>
       <c r="H19">
-        <v>176683</v>
+        <v>66275</v>
       </c>
       <c r="I19">
-        <v>6690</v>
+        <v>1636</v>
       </c>
       <c r="J19">
-        <v>27644</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1821</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-6575</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>40748</v>
+        <v>16139</v>
       </c>
       <c r="O19">
-        <v>86551</v>
+        <v>18902</v>
       </c>
       <c r="P19">
-        <v>31964</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>988</v>
+        <v>224</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>90132</v>
+        <v>47373</v>
       </c>
       <c r="U19">
-        <v>7414</v>
+        <v>3782</v>
       </c>
       <c r="V19">
-        <v>9601</v>
+        <v>5003</v>
       </c>
       <c r="W19">
-        <v>-2532</v>
+        <v>-885</v>
       </c>
       <c r="X19">
-        <v>-3096</v>
+        <v>-2958</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-3594</v>
+        <v>-1599</v>
       </c>
       <c r="AA19">
-        <v>4985</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-3195</v>
+        <v>3700</v>
       </c>
       <c r="D20">
-        <v>22180</v>
+        <v>10161</v>
       </c>
       <c r="E20">
-        <v>17908</v>
+        <v>7180</v>
       </c>
       <c r="F20">
-        <v>14712</v>
+        <v>8773</v>
       </c>
       <c r="G20">
-        <v>122797</v>
+        <v>48737</v>
       </c>
       <c r="H20">
-        <v>174472</v>
+        <v>70815</v>
       </c>
       <c r="I20">
-        <v>6591</v>
+        <v>2086</v>
       </c>
       <c r="J20">
-        <v>27808</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>5077</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,330 +2386,330 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>49647</v>
+        <v>16877</v>
       </c>
       <c r="O20">
-        <v>94389</v>
+        <v>22700</v>
       </c>
       <c r="P20">
-        <v>35384</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>-1819</v>
+        <v>1069</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>118000</v>
+        <v>61000</v>
       </c>
       <c r="T20">
-        <v>80083</v>
+        <v>48115</v>
       </c>
       <c r="U20">
-        <v>5595</v>
+        <v>4851</v>
       </c>
       <c r="V20">
-        <v>6849</v>
+        <v>3976</v>
       </c>
       <c r="W20">
-        <v>-2496</v>
+        <v>-859</v>
       </c>
       <c r="X20">
-        <v>-3604</v>
+        <v>-3710</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-2657</v>
+        <v>1314</v>
       </c>
       <c r="AA20">
-        <v>-3195</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>4902</v>
+        <v>3141</v>
       </c>
       <c r="D21">
-        <v>20379</v>
+        <v>9741</v>
       </c>
       <c r="E21">
-        <v>11444</v>
+        <v>5799</v>
       </c>
       <c r="F21">
-        <v>13172</v>
+        <v>8488</v>
       </c>
       <c r="G21">
-        <v>121656</v>
+        <v>49831</v>
       </c>
       <c r="H21">
-        <v>172896</v>
+        <v>71462</v>
       </c>
       <c r="I21">
-        <v>6630</v>
+        <v>1852</v>
       </c>
       <c r="J21">
-        <v>27819</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>10152</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-1750</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>49399</v>
+        <v>17022</v>
       </c>
       <c r="O21">
-        <v>95451</v>
+        <v>23135</v>
       </c>
       <c r="P21">
-        <v>38721</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-164</v>
+        <v>-1877</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>77445</v>
+        <v>48327</v>
       </c>
       <c r="U21">
-        <v>5431</v>
+        <v>2974</v>
       </c>
       <c r="V21">
-        <v>8876</v>
+        <v>4329</v>
       </c>
       <c r="W21">
-        <v>-2475</v>
+        <v>-857</v>
       </c>
       <c r="X21">
-        <v>-3930</v>
+        <v>-2941</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-3382</v>
+        <v>-2861</v>
       </c>
       <c r="AA21">
-        <v>4902</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>5018</v>
+        <v>3653</v>
       </c>
       <c r="D22">
-        <v>23796</v>
+        <v>11837</v>
       </c>
       <c r="E22">
-        <v>14507</v>
+        <v>7758</v>
       </c>
       <c r="F22">
-        <v>13924</v>
+        <v>9598</v>
       </c>
       <c r="G22">
-        <v>127812</v>
+        <v>46694</v>
       </c>
       <c r="H22">
-        <v>180098</v>
+        <v>67257</v>
       </c>
       <c r="I22">
-        <v>6936</v>
+        <v>2477</v>
       </c>
       <c r="J22">
-        <v>40679</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>3439</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>-7031</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>-121</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>42643</v>
+        <v>16747</v>
       </c>
       <c r="O22">
-        <v>103318</v>
+        <v>23049</v>
       </c>
       <c r="P22">
-        <v>44868</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1754</v>
+        <v>1109</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>76780</v>
+        <v>44208</v>
       </c>
       <c r="U22">
-        <v>7185</v>
+        <v>4083</v>
       </c>
       <c r="V22">
-        <v>5618</v>
+        <v>2231</v>
       </c>
       <c r="W22">
-        <v>-2868</v>
+        <v>-846</v>
       </c>
       <c r="X22">
-        <v>-518</v>
+        <v>-7802</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-1208</v>
+        <v>7073</v>
       </c>
       <c r="AA22">
-        <v>5018</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>3756</v>
+        <v>2977</v>
       </c>
       <c r="D23">
-        <v>20531</v>
+        <v>10900</v>
       </c>
       <c r="E23">
-        <v>12247</v>
+        <v>6818</v>
       </c>
       <c r="F23">
-        <v>12809</v>
+        <v>8872</v>
       </c>
       <c r="G23">
-        <v>128421</v>
+        <v>46628</v>
       </c>
       <c r="H23">
-        <v>181869</v>
+        <v>66854</v>
       </c>
       <c r="I23">
-        <v>6759</v>
+        <v>2354</v>
       </c>
       <c r="J23">
-        <v>40896</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>5871</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>44354</v>
+        <v>18367</v>
       </c>
       <c r="O23">
-        <v>107063</v>
+        <v>24816</v>
       </c>
       <c r="P23">
-        <v>46767</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>-15</v>
+        <v>268</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>74806</v>
+        <v>42038</v>
       </c>
       <c r="U23">
-        <v>7170</v>
+        <v>4351</v>
       </c>
       <c r="V23">
-        <v>10367</v>
+        <v>4563</v>
       </c>
       <c r="W23">
-        <v>-2842</v>
+        <v>-925</v>
       </c>
       <c r="X23">
-        <v>-4916</v>
+        <v>-5135</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-2550</v>
+        <v>-119</v>
       </c>
       <c r="AA23">
-        <v>3756</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>3122</v>
+        <v>2828</v>
       </c>
       <c r="D24">
-        <v>20614</v>
+        <v>11804</v>
       </c>
       <c r="E24">
-        <v>18277</v>
+        <v>9316</v>
       </c>
       <c r="F24">
-        <v>12635</v>
+        <v>9674</v>
       </c>
       <c r="G24">
-        <v>139660</v>
+        <v>49010</v>
       </c>
       <c r="H24">
-        <v>193468</v>
+        <v>69597</v>
       </c>
       <c r="I24">
-        <v>6898</v>
+        <v>2909</v>
       </c>
       <c r="J24">
-        <v>40557</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>13198</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,330 +2718,330 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>59357</v>
+        <v>22442</v>
       </c>
       <c r="O24">
-        <v>121471</v>
+        <v>29493</v>
       </c>
       <c r="P24">
-        <v>54541</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>-660</v>
+        <v>2363</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>114000</v>
+        <v>71000</v>
       </c>
       <c r="T24">
-        <v>71997</v>
+        <v>40104</v>
       </c>
       <c r="U24">
-        <v>6510</v>
+        <v>6714</v>
       </c>
       <c r="V24">
-        <v>8464</v>
+        <v>3281</v>
       </c>
       <c r="W24">
-        <v>-2821</v>
+        <v>-917</v>
       </c>
       <c r="X24">
-        <v>971</v>
+        <v>-4684</v>
       </c>
       <c r="Y24">
-        <v>761</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-7277</v>
+        <v>3020</v>
       </c>
       <c r="AA24">
-        <v>3122</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>5667</v>
+        <v>3478</v>
       </c>
       <c r="D25">
-        <v>21928</v>
+        <v>10811</v>
       </c>
       <c r="E25">
-        <v>11129</v>
+        <v>6879</v>
       </c>
       <c r="F25">
-        <v>14084</v>
+        <v>9115</v>
       </c>
       <c r="G25">
-        <v>157909</v>
+        <v>45358</v>
       </c>
       <c r="H25">
-        <v>212524</v>
+        <v>65354</v>
       </c>
       <c r="I25">
-        <v>6296</v>
+        <v>2406</v>
       </c>
       <c r="J25">
-        <v>60154</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>14746</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>-3390</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>-225</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>58810</v>
+        <v>21972</v>
       </c>
       <c r="O25">
-        <v>142152</v>
+        <v>29253</v>
       </c>
       <c r="P25">
-        <v>75932</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>7418</v>
+        <v>2362</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>70372</v>
+        <v>36101</v>
       </c>
       <c r="U25">
-        <v>13928</v>
+        <v>9076</v>
       </c>
       <c r="V25">
-        <v>11549</v>
+        <v>4061</v>
       </c>
       <c r="W25">
-        <v>-2800</v>
+        <v>-897</v>
       </c>
       <c r="X25">
-        <v>14329</v>
+        <v>-8175</v>
       </c>
       <c r="Y25">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-16199</v>
+        <v>6680</v>
       </c>
       <c r="AA25">
-        <v>5667</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>6267</v>
+        <v>2626</v>
       </c>
       <c r="D26">
-        <v>25826</v>
+        <v>12542</v>
       </c>
       <c r="E26">
-        <v>14343</v>
+        <v>9895</v>
       </c>
       <c r="F26">
-        <v>15925</v>
+        <v>8922</v>
       </c>
       <c r="G26">
-        <v>144949</v>
+        <v>45180</v>
       </c>
       <c r="H26">
-        <v>224610</v>
+        <v>66371</v>
       </c>
       <c r="I26">
-        <v>6580</v>
+        <v>2944</v>
       </c>
       <c r="J26">
-        <v>59306</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>26345</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>-3755</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>-4118</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>70787</v>
+        <v>22215</v>
       </c>
       <c r="O26">
-        <v>155801</v>
+        <v>29737</v>
       </c>
       <c r="P26">
-        <v>87806</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-5460</v>
+        <v>-2217</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>68809</v>
+        <v>36634</v>
       </c>
       <c r="U26">
-        <v>8468</v>
+        <v>6859</v>
       </c>
       <c r="V26">
-        <v>6293</v>
+        <v>2042</v>
       </c>
       <c r="W26">
-        <v>-3024</v>
+        <v>-980</v>
       </c>
       <c r="X26">
-        <v>3016</v>
+        <v>-2323</v>
       </c>
       <c r="Y26">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>10927</v>
+        <v>-329</v>
       </c>
       <c r="AA26">
-        <v>6267</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>5486</v>
+        <v>4926</v>
       </c>
       <c r="D27">
-        <v>23212</v>
+        <v>14398</v>
       </c>
       <c r="E27">
-        <v>12882</v>
+        <v>8454</v>
       </c>
       <c r="F27">
-        <v>15152</v>
+        <v>12258</v>
       </c>
       <c r="G27">
-        <v>146313</v>
+        <v>42783</v>
       </c>
       <c r="H27">
-        <v>225017</v>
+        <v>63891</v>
       </c>
       <c r="I27">
-        <v>6217</v>
+        <v>2843</v>
       </c>
       <c r="J27">
-        <v>76222</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>7388</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>-1302</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-211</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>52005</v>
+        <v>21627</v>
       </c>
       <c r="O27">
-        <v>155288</v>
+        <v>28918</v>
       </c>
       <c r="P27">
-        <v>85995</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>-1755</v>
+        <v>752</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>69729</v>
+        <v>34973</v>
       </c>
       <c r="U27">
-        <v>6713</v>
+        <v>7611</v>
       </c>
       <c r="V27">
-        <v>10660</v>
+        <v>7291</v>
       </c>
       <c r="W27">
-        <v>-3012</v>
+        <v>-976</v>
       </c>
       <c r="X27">
-        <v>-6236</v>
+        <v>-7063</v>
       </c>
       <c r="Y27">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>-2614</v>
+        <v>695</v>
       </c>
       <c r="AA27">
-        <v>5486</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>8069</v>
+        <v>3035</v>
       </c>
       <c r="D28">
-        <v>25605</v>
+        <v>13371</v>
       </c>
       <c r="E28">
-        <v>22431</v>
+        <v>11338</v>
       </c>
       <c r="F28">
-        <v>17560</v>
+        <v>10134</v>
       </c>
       <c r="G28">
-        <v>162696</v>
+        <v>40168</v>
       </c>
       <c r="H28">
-        <v>250312</v>
+        <v>63171</v>
       </c>
       <c r="I28">
-        <v>7390</v>
+        <v>3247</v>
       </c>
       <c r="J28">
-        <v>76073</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>9072</v>
+        <v>2741</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,330 +3050,330 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>55745</v>
+        <v>23754</v>
       </c>
       <c r="O28">
-        <v>162601</v>
+        <v>32074</v>
       </c>
       <c r="P28">
-        <v>95527</v>
+        <v>2741</v>
       </c>
       <c r="Q28">
-        <v>950</v>
+        <v>-1500</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>124000</v>
+        <v>79000</v>
       </c>
       <c r="T28">
-        <v>87711</v>
+        <v>31097</v>
       </c>
       <c r="U28">
-        <v>7663</v>
+        <v>6111</v>
       </c>
       <c r="V28">
-        <v>11005</v>
+        <v>4402</v>
       </c>
       <c r="W28">
-        <v>-3009</v>
+        <v>-952</v>
       </c>
       <c r="X28">
-        <v>-2701</v>
+        <v>-6983</v>
       </c>
       <c r="Y28">
-        <v>7797</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>-4625</v>
+        <v>2833</v>
       </c>
       <c r="AA28">
-        <v>8069</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>6576</v>
+        <v>4289</v>
       </c>
       <c r="D29">
-        <v>24538</v>
+        <v>13762</v>
       </c>
       <c r="E29">
-        <v>14561</v>
+        <v>8982</v>
       </c>
       <c r="F29">
-        <v>16260</v>
+        <v>11087</v>
       </c>
       <c r="G29">
-        <v>161031</v>
+        <v>35853</v>
       </c>
       <c r="H29">
-        <v>249097</v>
+        <v>65645</v>
       </c>
       <c r="I29">
-        <v>6866</v>
+        <v>3206</v>
       </c>
       <c r="J29">
-        <v>76255</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>8373</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>-3710</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>-1169</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>51615</v>
+        <v>22744</v>
       </c>
       <c r="O29">
-        <v>159450</v>
+        <v>33510</v>
       </c>
       <c r="P29">
-        <v>95971</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>-779</v>
+        <v>526</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>89647</v>
+        <v>32135</v>
       </c>
       <c r="U29">
-        <v>6884</v>
+        <v>6637</v>
       </c>
       <c r="V29">
-        <v>12440</v>
+        <v>5878</v>
       </c>
       <c r="W29">
-        <v>-3003</v>
+        <v>-938</v>
       </c>
       <c r="X29">
-        <v>-6341</v>
+        <v>-3153</v>
       </c>
       <c r="Y29">
-        <v>8895</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>-4699</v>
+        <v>3453</v>
       </c>
       <c r="AA29">
-        <v>6576</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-6302</v>
+        <v>4707</v>
       </c>
       <c r="D30">
-        <v>28918</v>
+        <v>16367</v>
       </c>
       <c r="E30">
-        <v>18428</v>
+        <v>11621</v>
       </c>
       <c r="F30">
-        <v>17854</v>
+        <v>12824</v>
       </c>
       <c r="G30">
-        <v>167633</v>
+        <v>37775</v>
       </c>
       <c r="H30">
-        <v>256003</v>
+        <v>67339</v>
       </c>
       <c r="I30">
-        <v>7850</v>
+        <v>3612</v>
       </c>
       <c r="J30">
-        <v>73348</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>12492</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-3327</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>58099</v>
+        <v>22058</v>
       </c>
       <c r="O30">
-        <v>177643</v>
+        <v>32908</v>
       </c>
       <c r="P30">
-        <v>100171</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>5975</v>
+        <v>823</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>78360</v>
+        <v>34431</v>
       </c>
       <c r="U30">
-        <v>12859</v>
+        <v>7460</v>
       </c>
       <c r="V30">
-        <v>7875</v>
+        <v>4567</v>
       </c>
       <c r="W30">
-        <v>-3238</v>
+        <v>-1034</v>
       </c>
       <c r="X30">
-        <v>-1552</v>
+        <v>-2723</v>
       </c>
       <c r="Y30">
-        <v>9386</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>2459</v>
+        <v>849</v>
       </c>
       <c r="AA30">
-        <v>-6302</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>7424</v>
+        <v>4388</v>
       </c>
       <c r="D31">
-        <v>26819</v>
+        <v>14454</v>
       </c>
       <c r="E31">
-        <v>17208</v>
+        <v>9871</v>
       </c>
       <c r="F31">
-        <v>17550</v>
+        <v>11940</v>
       </c>
       <c r="G31">
-        <v>156659</v>
+        <v>41489</v>
       </c>
       <c r="H31">
-        <v>245497</v>
+        <v>70747</v>
       </c>
       <c r="I31">
-        <v>7623</v>
+        <v>3600</v>
       </c>
       <c r="J31">
-        <v>73480</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-7373</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-4883</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>46133</v>
+        <v>27028</v>
       </c>
       <c r="O31">
-        <v>166258</v>
+        <v>33193</v>
       </c>
       <c r="P31">
-        <v>88621</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>-3638</v>
+        <v>4360</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>79239</v>
+        <v>37554</v>
       </c>
       <c r="U31">
-        <v>9221</v>
+        <v>11820</v>
       </c>
       <c r="V31">
-        <v>12151</v>
+        <v>7082</v>
       </c>
       <c r="W31">
-        <v>-3232</v>
+        <v>-1023</v>
       </c>
       <c r="X31">
-        <v>-19658</v>
+        <v>-1986</v>
       </c>
       <c r="Y31">
-        <v>9901</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>7045</v>
+        <v>-190</v>
       </c>
       <c r="AA31">
-        <v>7424</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>8873</v>
+        <v>4297</v>
       </c>
       <c r="D32">
-        <v>30085</v>
+        <v>15837</v>
       </c>
       <c r="E32">
-        <v>26481</v>
+        <v>13589</v>
       </c>
       <c r="F32">
-        <v>20343</v>
+        <v>12971</v>
       </c>
       <c r="G32">
-        <v>169662</v>
+        <v>43242</v>
       </c>
       <c r="H32">
-        <v>258848</v>
+        <v>72793</v>
       </c>
       <c r="I32">
-        <v>8617</v>
+        <v>4034</v>
       </c>
       <c r="J32">
-        <v>72242</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>2614</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>58488</v>
+        <v>29886</v>
       </c>
       <c r="O32">
-        <v>176130</v>
+        <v>36507</v>
       </c>
       <c r="P32">
-        <v>87508</v>
+        <v>2614</v>
       </c>
       <c r="Q32">
-        <v>2725</v>
+        <v>-1481</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>131000</v>
+        <v>91000</v>
       </c>
       <c r="T32">
-        <v>82718</v>
+        <v>36286</v>
       </c>
       <c r="U32">
-        <v>11946</v>
+        <v>10339</v>
       </c>
       <c r="V32">
-        <v>11418</v>
+        <v>4085</v>
       </c>
       <c r="W32">
-        <v>-3226</v>
+        <v>-1020</v>
       </c>
       <c r="X32">
-        <v>-6039</v>
+        <v>-5072</v>
       </c>
       <c r="Y32">
-        <v>9693</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>1752</v>
+        <v>2663</v>
       </c>
       <c r="AA32">
-        <v>8873</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>8824</v>
+        <v>4373</v>
       </c>
       <c r="D33">
-        <v>29084</v>
+        <v>15061</v>
       </c>
       <c r="E33">
-        <v>17390</v>
+        <v>9535</v>
       </c>
       <c r="F33">
-        <v>19179</v>
+        <v>12213</v>
       </c>
       <c r="G33">
-        <v>164195</v>
+        <v>37202</v>
       </c>
       <c r="H33">
-        <v>257619</v>
+        <v>65117</v>
       </c>
       <c r="I33">
-        <v>8511</v>
+        <v>3351</v>
       </c>
       <c r="J33">
-        <v>69733</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>3045</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,247 +3465,247 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>56277</v>
+        <v>24383</v>
       </c>
       <c r="O33">
-        <v>171652</v>
+        <v>31523</v>
       </c>
       <c r="P33">
-        <v>87928</v>
+        <v>3045</v>
       </c>
       <c r="Q33">
-        <v>3191</v>
+        <v>-1335</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>85967</v>
+        <v>33594</v>
       </c>
       <c r="U33">
-        <v>15137</v>
+        <v>9004</v>
       </c>
       <c r="V33">
-        <v>13657</v>
+        <v>3370</v>
       </c>
       <c r="W33">
-        <v>-3220</v>
+        <v>-998</v>
       </c>
       <c r="X33">
-        <v>-7384</v>
+        <v>-5244</v>
       </c>
       <c r="Y33">
-        <v>10123</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>894</v>
+        <v>3293</v>
       </c>
       <c r="AA33">
-        <v>8824</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>8420</v>
+        <v>4174</v>
       </c>
       <c r="D34">
-        <v>32471</v>
+        <v>16629</v>
       </c>
       <c r="E34">
-        <v>19680</v>
+        <v>10953</v>
       </c>
       <c r="F34">
-        <v>20048</v>
+        <v>12722</v>
       </c>
       <c r="G34">
-        <v>156874</v>
+        <v>37730</v>
       </c>
       <c r="H34">
-        <v>258859</v>
+        <v>65786</v>
       </c>
       <c r="I34">
-        <v>7563</v>
+        <v>3533</v>
       </c>
       <c r="J34">
-        <v>69653</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>50318</v>
+        <v>23710</v>
       </c>
       <c r="O34">
-        <v>166731</v>
+        <v>31308</v>
       </c>
       <c r="P34">
-        <v>85483</v>
+        <v>2000</v>
       </c>
       <c r="Q34">
-        <v>-8499</v>
+        <v>-658</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>92128</v>
+        <v>34478</v>
       </c>
       <c r="U34">
-        <v>6638</v>
+        <v>8346</v>
       </c>
       <c r="V34">
-        <v>8900</v>
+        <v>5782</v>
       </c>
       <c r="W34">
-        <v>-3544</v>
+        <v>-1157</v>
       </c>
       <c r="X34">
-        <v>-13216</v>
+        <v>-3858</v>
       </c>
       <c r="Y34">
-        <v>10648</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>1100</v>
+        <v>-606</v>
       </c>
       <c r="AA34">
-        <v>8420</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>8809</v>
+        <v>2977</v>
       </c>
       <c r="D35">
-        <v>30571</v>
+        <v>13648</v>
       </c>
       <c r="E35">
-        <v>19269</v>
+        <v>9182</v>
       </c>
       <c r="F35">
-        <v>20401</v>
+        <v>10834</v>
       </c>
       <c r="G35">
-        <v>159887</v>
+        <v>40724</v>
       </c>
       <c r="H35">
-        <v>263281</v>
+        <v>68853</v>
       </c>
       <c r="I35">
-        <v>7544</v>
+        <v>3017</v>
       </c>
       <c r="J35">
-        <v>66585</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>3532</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-329</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>53861</v>
+        <v>23823</v>
       </c>
       <c r="O35">
-        <v>168417</v>
+        <v>31910</v>
       </c>
       <c r="P35">
-        <v>86343</v>
+        <v>3532</v>
       </c>
       <c r="Q35">
-        <v>4574</v>
+        <v>-1061</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>94864</v>
+        <v>36943</v>
       </c>
       <c r="U35">
-        <v>11212</v>
+        <v>7285</v>
       </c>
       <c r="V35">
-        <v>13520</v>
+        <v>6044</v>
       </c>
       <c r="W35">
-        <v>-3526</v>
+        <v>-1155</v>
       </c>
       <c r="X35">
-        <v>-7601</v>
+        <v>-1060</v>
       </c>
       <c r="Y35">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1471</v>
+        <v>-6441</v>
       </c>
       <c r="AA35">
-        <v>8809</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>13187</v>
+        <v>3045</v>
       </c>
       <c r="D36">
-        <v>33717</v>
+        <v>13099</v>
       </c>
       <c r="E36">
-        <v>29524</v>
+        <v>11192</v>
       </c>
       <c r="F36">
-        <v>23305</v>
+        <v>10513</v>
       </c>
       <c r="G36">
-        <v>175552</v>
+        <v>49280</v>
       </c>
       <c r="H36">
-        <v>286556</v>
+        <v>77888</v>
       </c>
       <c r="I36">
-        <v>9382</v>
+        <v>3324</v>
       </c>
       <c r="J36">
-        <v>66662</v>
+        <v>3746</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>3684</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,330 +3714,330 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>69420</v>
+        <v>27034</v>
       </c>
       <c r="O36">
-        <v>184226</v>
+        <v>38330</v>
       </c>
       <c r="P36">
-        <v>86455</v>
+        <v>7450</v>
       </c>
       <c r="Q36">
-        <v>144</v>
+        <v>-1209</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>144000</v>
+        <v>93000</v>
       </c>
       <c r="T36">
-        <v>102330</v>
+        <v>39558</v>
       </c>
       <c r="U36">
-        <v>11356</v>
+        <v>6076</v>
       </c>
       <c r="V36">
-        <v>16108</v>
+        <v>3841</v>
       </c>
       <c r="W36">
-        <v>-3521</v>
+        <v>-1158</v>
       </c>
       <c r="X36">
-        <v>-8686</v>
+        <v>2699</v>
       </c>
       <c r="Y36">
-        <v>12445</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-2925</v>
+        <v>-7099</v>
       </c>
       <c r="AA36">
-        <v>13187</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>10678</v>
+        <v>3574</v>
       </c>
       <c r="D37">
-        <v>33055</v>
+        <v>12920</v>
       </c>
       <c r="E37">
-        <v>19087</v>
+        <v>8587</v>
       </c>
       <c r="F37">
-        <v>22649</v>
+        <v>10078</v>
       </c>
       <c r="G37">
-        <v>165896</v>
+        <v>52231</v>
       </c>
       <c r="H37">
-        <v>278955</v>
+        <v>81612</v>
       </c>
       <c r="I37">
-        <v>8574</v>
+        <v>3287</v>
       </c>
       <c r="J37">
-        <v>66478</v>
+        <v>3746</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>5784</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-2500</v>
+        <v>-823</v>
       </c>
       <c r="N37">
-        <v>58118</v>
+        <v>28761</v>
       </c>
       <c r="O37">
-        <v>172894</v>
+        <v>40400</v>
       </c>
       <c r="P37">
-        <v>85570</v>
+        <v>9530</v>
       </c>
       <c r="Q37">
-        <v>1761</v>
+        <v>2747</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>106061</v>
+        <v>41212</v>
       </c>
       <c r="U37">
-        <v>13117</v>
+        <v>8823</v>
       </c>
       <c r="V37">
-        <v>13818</v>
+        <v>6107</v>
       </c>
       <c r="W37">
-        <v>-3510</v>
+        <v>-1157</v>
       </c>
       <c r="X37">
-        <v>-10209</v>
+        <v>-2190</v>
       </c>
       <c r="Y37">
-        <v>14120</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>2071</v>
+        <v>-2575</v>
       </c>
       <c r="AA37">
-        <v>10678</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>11649</v>
+        <v>6662</v>
       </c>
       <c r="D38">
-        <v>36906</v>
+        <v>19022</v>
       </c>
       <c r="E38">
-        <v>23525</v>
+        <v>11196</v>
       </c>
       <c r="F38">
-        <v>24548</v>
+        <v>15394</v>
       </c>
       <c r="G38">
-        <v>167074</v>
+        <v>52487</v>
       </c>
       <c r="H38">
-        <v>282794</v>
+        <v>82096</v>
       </c>
       <c r="I38">
-        <v>8811</v>
+        <v>3171</v>
       </c>
       <c r="J38">
-        <v>63361</v>
+        <v>3746</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>5160</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>-475</v>
       </c>
       <c r="M38">
-        <v>-18</v>
+        <v>-573</v>
       </c>
       <c r="N38">
-        <v>59640</v>
+        <v>25715</v>
       </c>
       <c r="O38">
-        <v>172685</v>
+        <v>37813</v>
       </c>
       <c r="P38">
-        <v>87147</v>
+        <v>8912</v>
       </c>
       <c r="Q38">
-        <v>-4253</v>
+        <v>599</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>110109</v>
+        <v>44283</v>
       </c>
       <c r="U38">
-        <v>8864</v>
+        <v>9422</v>
       </c>
       <c r="V38">
-        <v>10680</v>
+        <v>4969</v>
       </c>
       <c r="W38">
-        <v>-3886</v>
+        <v>-1152</v>
       </c>
       <c r="X38">
-        <v>-8915</v>
+        <v>-4277</v>
       </c>
       <c r="Y38">
-        <v>15459</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-2411</v>
+        <v>970</v>
       </c>
       <c r="AA38">
-        <v>11649</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>10752</v>
+        <v>4006</v>
       </c>
       <c r="D39">
-        <v>35021</v>
+        <v>14503</v>
       </c>
       <c r="E39">
-        <v>22699</v>
+        <v>9137</v>
       </c>
       <c r="F39">
-        <v>24046</v>
+        <v>11748</v>
       </c>
       <c r="G39">
-        <v>170505</v>
+        <v>54518</v>
       </c>
       <c r="H39">
-        <v>285449</v>
+        <v>84910</v>
       </c>
       <c r="I39">
-        <v>9246</v>
+        <v>3279</v>
       </c>
       <c r="J39">
-        <v>62862</v>
+        <v>3746</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>5043</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-349</v>
       </c>
       <c r="M39">
-        <v>-3000</v>
+        <v>-502</v>
       </c>
       <c r="N39">
-        <v>58707</v>
+        <v>26424</v>
       </c>
       <c r="O39">
-        <v>170948</v>
+        <v>39200</v>
       </c>
       <c r="P39">
-        <v>84025</v>
+        <v>8795</v>
       </c>
       <c r="Q39">
-        <v>2846</v>
+        <v>-1267</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>114501</v>
+        <v>45710</v>
       </c>
       <c r="U39">
-        <v>11710</v>
+        <v>8155</v>
       </c>
       <c r="V39">
-        <v>17504</v>
+        <v>7393</v>
       </c>
       <c r="W39">
-        <v>-3876</v>
+        <v>-1139</v>
       </c>
       <c r="X39">
-        <v>-14645</v>
+        <v>-2726</v>
       </c>
       <c r="Y39">
-        <v>15388</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>4147</v>
+        <v>-5236</v>
       </c>
       <c r="AA39">
-        <v>10752</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>11202</v>
+        <v>4518</v>
       </c>
       <c r="D40">
-        <v>38033</v>
+        <v>16039</v>
       </c>
       <c r="E40">
-        <v>32011</v>
+        <v>13014</v>
       </c>
       <c r="F40">
-        <v>25694</v>
+        <v>12869</v>
       </c>
       <c r="G40">
-        <v>181915</v>
+        <v>55676</v>
       </c>
       <c r="H40">
-        <v>301311</v>
+        <v>86113</v>
       </c>
       <c r="I40">
-        <v>12530</v>
+        <v>4025</v>
       </c>
       <c r="J40">
-        <v>59578</v>
+        <v>4939</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1182</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,211 +4046,3531 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>72310</v>
+        <v>26147</v>
       </c>
       <c r="O40">
-        <v>183007</v>
+        <v>39938</v>
       </c>
       <c r="P40">
-        <v>82110</v>
+        <v>6154</v>
       </c>
       <c r="Q40">
-        <v>1866</v>
+        <v>-2650</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>163000</v>
+        <v>89000</v>
       </c>
       <c r="T40">
-        <v>118304</v>
+        <v>46175</v>
       </c>
       <c r="U40">
-        <v>13576</v>
+        <v>5505</v>
       </c>
       <c r="V40">
-        <v>18673</v>
+        <v>5604</v>
       </c>
       <c r="W40">
-        <v>-3865</v>
+        <v>-1130</v>
       </c>
       <c r="X40">
-        <v>-12262</v>
+        <v>-4098</v>
       </c>
       <c r="Y40">
-        <v>16627</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>3173</v>
+        <v>-749</v>
       </c>
       <c r="AA40">
-        <v>11202</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>13893</v>
+        <v>5410</v>
       </c>
       <c r="D41">
-        <v>37154</v>
+        <v>16195</v>
       </c>
       <c r="E41">
-        <v>22851</v>
+        <v>9646</v>
       </c>
       <c r="F41">
-        <v>26152</v>
+        <v>13056</v>
       </c>
       <c r="G41">
-        <v>177077</v>
+        <v>59581</v>
       </c>
       <c r="H41">
-        <v>301001</v>
+        <v>91540</v>
       </c>
       <c r="I41">
-        <v>12509</v>
+        <v>3654</v>
       </c>
       <c r="J41">
-        <v>57055</v>
+        <v>9665</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1909</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-814</v>
       </c>
       <c r="N41">
-        <v>70056</v>
+        <v>25857</v>
       </c>
       <c r="O41">
-        <v>177609</v>
+        <v>44598</v>
       </c>
       <c r="P41">
-        <v>83216</v>
+        <v>11574</v>
       </c>
       <c r="Q41">
-        <v>3629</v>
+        <v>2656</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>123392</v>
+        <v>46942</v>
       </c>
       <c r="U41">
-        <v>17205</v>
+        <v>8161</v>
       </c>
       <c r="V41">
-        <v>19335</v>
+        <v>8194</v>
       </c>
       <c r="W41">
-        <v>-3856</v>
+        <v>-1118</v>
       </c>
       <c r="X41">
-        <v>-10289</v>
+        <v>-639</v>
       </c>
       <c r="Y41">
-        <v>17324</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>2100</v>
+        <v>-5120</v>
       </c>
       <c r="AA41">
-        <v>13893</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>6634</v>
+      </c>
+      <c r="D42">
+        <v>19953</v>
+      </c>
+      <c r="E42">
+        <v>12874</v>
+      </c>
+      <c r="F42">
+        <v>15120</v>
+      </c>
+      <c r="G42">
+        <v>59684</v>
+      </c>
+      <c r="H42">
+        <v>92306</v>
+      </c>
+      <c r="I42">
+        <v>3863</v>
+      </c>
+      <c r="J42">
+        <v>9671</v>
+      </c>
+      <c r="K42">
+        <v>1355</v>
+      </c>
+      <c r="L42">
+        <v>-1000</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>24312</v>
+      </c>
+      <c r="O42">
+        <v>43825</v>
+      </c>
+      <c r="P42">
+        <v>11032</v>
+      </c>
+      <c r="Q42">
+        <v>-4138</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>48481</v>
+      </c>
+      <c r="U42">
+        <v>4023</v>
+      </c>
+      <c r="V42">
+        <v>4186</v>
+      </c>
+      <c r="W42">
+        <v>-1363</v>
+      </c>
+      <c r="X42">
+        <v>-6751</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-1457</v>
+      </c>
+      <c r="AA42">
+        <v>6634</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>5232</v>
+      </c>
+      <c r="D43">
+        <v>16428</v>
+      </c>
+      <c r="E43">
+        <v>10033</v>
+      </c>
+      <c r="F43">
+        <v>12531</v>
+      </c>
+      <c r="G43">
+        <v>66263</v>
+      </c>
+      <c r="H43">
+        <v>99727</v>
+      </c>
+      <c r="I43">
+        <v>3829</v>
+      </c>
+      <c r="J43">
+        <v>11915</v>
+      </c>
+      <c r="K43">
+        <v>1245</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>24042</v>
+      </c>
+      <c r="O43">
+        <v>46275</v>
+      </c>
+      <c r="P43">
+        <v>13165</v>
+      </c>
+      <c r="Q43">
+        <v>2998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>53452</v>
+      </c>
+      <c r="U43">
+        <v>7021</v>
+      </c>
+      <c r="V43">
+        <v>8672</v>
+      </c>
+      <c r="W43">
+        <v>-1349</v>
+      </c>
+      <c r="X43">
+        <v>1437</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-6370</v>
+      </c>
+      <c r="AA43">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>5874</v>
+      </c>
+      <c r="D44">
+        <v>17367</v>
+      </c>
+      <c r="E44">
+        <v>14987</v>
+      </c>
+      <c r="F44">
+        <v>13659</v>
+      </c>
+      <c r="G44">
+        <v>74918</v>
+      </c>
+      <c r="H44">
+        <v>108704</v>
+      </c>
+      <c r="I44">
+        <v>4197</v>
+      </c>
+      <c r="J44">
+        <v>11921</v>
+      </c>
+      <c r="K44">
+        <v>1208</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>28774</v>
+      </c>
+      <c r="O44">
+        <v>51621</v>
+      </c>
+      <c r="P44">
+        <v>13138</v>
+      </c>
+      <c r="Q44">
+        <v>2589</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>90000</v>
+      </c>
+      <c r="T44">
+        <v>57083</v>
+      </c>
+      <c r="U44">
+        <v>9610</v>
+      </c>
+      <c r="V44">
+        <v>5942</v>
+      </c>
+      <c r="W44">
+        <v>-1350</v>
+      </c>
+      <c r="X44">
+        <v>-2423</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-269</v>
+      </c>
+      <c r="AA44">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>5738</v>
+      </c>
+      <c r="D45">
+        <v>17372</v>
+      </c>
+      <c r="E45">
+        <v>10153</v>
+      </c>
+      <c r="F45">
+        <v>13595</v>
+      </c>
+      <c r="G45">
+        <v>75271</v>
+      </c>
+      <c r="H45">
+        <v>107415</v>
+      </c>
+      <c r="I45">
+        <v>3719</v>
+      </c>
+      <c r="J45">
+        <v>11927</v>
+      </c>
+      <c r="K45">
+        <v>1141</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>25543</v>
+      </c>
+      <c r="O45">
+        <v>48024</v>
+      </c>
+      <c r="P45">
+        <v>13097</v>
+      </c>
+      <c r="Q45">
+        <v>3271</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>59391</v>
+      </c>
+      <c r="U45">
+        <v>12881</v>
+      </c>
+      <c r="V45">
+        <v>8493</v>
+      </c>
+      <c r="W45">
+        <v>-1341</v>
+      </c>
+      <c r="X45">
+        <v>-2869</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-938</v>
+      </c>
+      <c r="AA45">
+        <v>5738</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>6624</v>
+      </c>
+      <c r="D46">
+        <v>20885</v>
+      </c>
+      <c r="E46">
+        <v>13643</v>
+      </c>
+      <c r="F46">
+        <v>15247</v>
+      </c>
+      <c r="G46">
+        <v>72513</v>
+      </c>
+      <c r="H46">
+        <v>112243</v>
+      </c>
+      <c r="I46">
+        <v>3884</v>
+      </c>
+      <c r="J46">
+        <v>11932</v>
+      </c>
+      <c r="K46">
+        <v>849</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>25373</v>
+      </c>
+      <c r="O46">
+        <v>48122</v>
+      </c>
+      <c r="P46">
+        <v>12803</v>
+      </c>
+      <c r="Q46">
+        <v>-2271</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>64121</v>
+      </c>
+      <c r="U46">
+        <v>10610</v>
+      </c>
+      <c r="V46">
+        <v>5862</v>
+      </c>
+      <c r="W46">
+        <v>-1683</v>
+      </c>
+      <c r="X46">
+        <v>-2513</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>3849</v>
+      </c>
+      <c r="AA46">
+        <v>6624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>5108</v>
+      </c>
+      <c r="D47">
+        <v>17407</v>
+      </c>
+      <c r="E47">
+        <v>10961</v>
+      </c>
+      <c r="F47">
+        <v>13455</v>
+      </c>
+      <c r="G47">
+        <v>76860</v>
+      </c>
+      <c r="H47">
+        <v>118010</v>
+      </c>
+      <c r="I47">
+        <v>3790</v>
+      </c>
+      <c r="J47">
+        <v>11938</v>
+      </c>
+      <c r="K47">
+        <v>1210</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>26170</v>
+      </c>
+      <c r="O47">
+        <v>49351</v>
+      </c>
+      <c r="P47">
+        <v>13148</v>
+      </c>
+      <c r="Q47">
+        <v>-4222</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>68659</v>
+      </c>
+      <c r="U47">
+        <v>6388</v>
+      </c>
+      <c r="V47">
+        <v>9594</v>
+      </c>
+      <c r="W47">
+        <v>-1683</v>
+      </c>
+      <c r="X47">
+        <v>-1605</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-11769</v>
+      </c>
+      <c r="AA47">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>-492</v>
+      </c>
+      <c r="D48">
+        <v>18059</v>
+      </c>
+      <c r="E48">
+        <v>15780</v>
+      </c>
+      <c r="F48">
+        <v>13896</v>
+      </c>
+      <c r="G48">
+        <v>85084</v>
+      </c>
+      <c r="H48">
+        <v>121271</v>
+      </c>
+      <c r="I48">
+        <v>4175</v>
+      </c>
+      <c r="J48">
+        <v>10713</v>
+      </c>
+      <c r="K48">
+        <v>814</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>32688</v>
+      </c>
+      <c r="O48">
+        <v>54908</v>
+      </c>
+      <c r="P48">
+        <v>12775</v>
+      </c>
+      <c r="Q48">
+        <v>550</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>94000</v>
+      </c>
+      <c r="T48">
+        <v>66363</v>
+      </c>
+      <c r="U48">
+        <v>6938</v>
+      </c>
+      <c r="V48">
+        <v>7677</v>
+      </c>
+      <c r="W48">
+        <v>-1678</v>
+      </c>
+      <c r="X48">
+        <v>-2421</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-3117</v>
+      </c>
+      <c r="AA48">
+        <v>-492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>4466</v>
+      </c>
+      <c r="D49">
+        <v>16008</v>
+      </c>
+      <c r="E49">
+        <v>9871</v>
+      </c>
+      <c r="F49">
+        <v>11840</v>
+      </c>
+      <c r="G49">
+        <v>84051</v>
+      </c>
+      <c r="H49">
+        <v>121876</v>
+      </c>
+      <c r="I49">
+        <v>3631</v>
+      </c>
+      <c r="J49">
+        <v>9714</v>
+      </c>
+      <c r="K49">
+        <v>415</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>31402</v>
+      </c>
+      <c r="O49">
+        <v>53040</v>
+      </c>
+      <c r="P49">
+        <v>12374</v>
+      </c>
+      <c r="Q49">
+        <v>-1902</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>68836</v>
+      </c>
+      <c r="U49">
+        <v>5036</v>
+      </c>
+      <c r="V49">
+        <v>8484</v>
+      </c>
+      <c r="W49">
+        <v>-1676</v>
+      </c>
+      <c r="X49">
+        <v>-2714</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-5572</v>
+      </c>
+      <c r="AA49">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>6377</v>
+      </c>
+      <c r="D50">
+        <v>21456</v>
+      </c>
+      <c r="E50">
+        <v>14317</v>
+      </c>
+      <c r="F50">
+        <v>15764</v>
+      </c>
+      <c r="G50">
+        <v>89574</v>
+      </c>
+      <c r="H50">
+        <v>128683</v>
+      </c>
+      <c r="I50">
+        <v>4356</v>
+      </c>
+      <c r="J50">
+        <v>11947</v>
+      </c>
+      <c r="K50">
+        <v>21</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>31910</v>
+      </c>
+      <c r="O50">
+        <v>56107</v>
+      </c>
+      <c r="P50">
+        <v>14218</v>
+      </c>
+      <c r="Q50">
+        <v>981</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>72576</v>
+      </c>
+      <c r="U50">
+        <v>6017</v>
+      </c>
+      <c r="V50">
+        <v>4780</v>
+      </c>
+      <c r="W50">
+        <v>-1933</v>
+      </c>
+      <c r="X50">
+        <v>-1221</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-959</v>
+      </c>
+      <c r="AA50">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>6055</v>
+      </c>
+      <c r="D51">
+        <v>20489</v>
+      </c>
+      <c r="E51">
+        <v>11991</v>
+      </c>
+      <c r="F51">
+        <v>15702</v>
+      </c>
+      <c r="G51">
+        <v>93524</v>
+      </c>
+      <c r="H51">
+        <v>134105</v>
+      </c>
+      <c r="I51">
+        <v>4532</v>
+      </c>
+      <c r="J51">
+        <v>11949</v>
+      </c>
+      <c r="K51">
+        <v>564</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>31929</v>
+      </c>
+      <c r="O51">
+        <v>57417</v>
+      </c>
+      <c r="P51">
+        <v>14765</v>
+      </c>
+      <c r="Q51">
+        <v>-777</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>76688</v>
+      </c>
+      <c r="U51">
+        <v>5240</v>
+      </c>
+      <c r="V51">
+        <v>9666</v>
+      </c>
+      <c r="W51">
+        <v>-1925</v>
+      </c>
+      <c r="X51">
+        <v>-2744</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-7165</v>
+      </c>
+      <c r="AA51">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>4965</v>
+      </c>
+      <c r="D52">
+        <v>19896</v>
+      </c>
+      <c r="E52">
+        <v>17486</v>
+      </c>
+      <c r="F52">
+        <v>14294</v>
+      </c>
+      <c r="G52">
+        <v>101466</v>
+      </c>
+      <c r="H52">
+        <v>142431</v>
+      </c>
+      <c r="I52">
+        <v>4828</v>
+      </c>
+      <c r="J52">
+        <v>12601</v>
+      </c>
+      <c r="K52">
+        <v>645</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>37417</v>
+      </c>
+      <c r="O52">
+        <v>63487</v>
+      </c>
+      <c r="P52">
+        <v>16290</v>
+      </c>
+      <c r="Q52">
+        <v>-1436</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>99000</v>
+      </c>
+      <c r="T52">
+        <v>78944</v>
+      </c>
+      <c r="U52">
+        <v>3804</v>
+      </c>
+      <c r="V52">
+        <v>5903</v>
+      </c>
+      <c r="W52">
+        <v>-1921</v>
+      </c>
+      <c r="X52">
+        <v>-1469</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-4106</v>
+      </c>
+      <c r="AA52">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>5244</v>
+      </c>
+      <c r="D53">
+        <v>18529</v>
+      </c>
+      <c r="E53">
+        <v>11007</v>
+      </c>
+      <c r="F53">
+        <v>13384</v>
+      </c>
+      <c r="G53">
+        <v>99450</v>
+      </c>
+      <c r="H53">
+        <v>142348</v>
+      </c>
+      <c r="I53">
+        <v>4841</v>
+      </c>
+      <c r="J53">
+        <v>12632</v>
+      </c>
+      <c r="K53">
+        <v>1882</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-1000</v>
+      </c>
+      <c r="N53">
+        <v>34623</v>
+      </c>
+      <c r="O53">
+        <v>60707</v>
+      </c>
+      <c r="P53">
+        <v>16525</v>
+      </c>
+      <c r="Q53">
+        <v>219</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>81641</v>
+      </c>
+      <c r="U53">
+        <v>4023</v>
+      </c>
+      <c r="V53">
+        <v>8205</v>
+      </c>
+      <c r="W53">
+        <v>-1916</v>
+      </c>
+      <c r="X53">
+        <v>-3396</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-3304</v>
+      </c>
+      <c r="AA53">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>6558</v>
+      </c>
+      <c r="D54">
+        <v>24519</v>
+      </c>
+      <c r="E54">
+        <v>15986</v>
+      </c>
+      <c r="F54">
+        <v>16197</v>
+      </c>
+      <c r="G54">
+        <v>106870</v>
+      </c>
+      <c r="H54">
+        <v>153543</v>
+      </c>
+      <c r="I54">
+        <v>5398</v>
+      </c>
+      <c r="J54">
+        <v>20676</v>
+      </c>
+      <c r="K54">
+        <v>1048</v>
+      </c>
+      <c r="L54">
+        <v>-712</v>
+      </c>
+      <c r="M54">
+        <v>-588</v>
+      </c>
+      <c r="N54">
+        <v>33742</v>
+      </c>
+      <c r="O54">
+        <v>68443</v>
+      </c>
+      <c r="P54">
+        <v>23724</v>
+      </c>
+      <c r="Q54">
+        <v>6036</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>85100</v>
+      </c>
+      <c r="U54">
+        <v>10059</v>
+      </c>
+      <c r="V54">
+        <v>4413</v>
+      </c>
+      <c r="W54">
+        <v>-2332</v>
+      </c>
+      <c r="X54">
+        <v>2615</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>679</v>
+      </c>
+      <c r="AA54">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>5660</v>
+      </c>
+      <c r="D55">
+        <v>20403</v>
+      </c>
+      <c r="E55">
+        <v>13497</v>
+      </c>
+      <c r="F55">
+        <v>14425</v>
+      </c>
+      <c r="G55">
+        <v>109006</v>
+      </c>
+      <c r="H55">
+        <v>156119</v>
+      </c>
+      <c r="I55">
+        <v>4583</v>
+      </c>
+      <c r="J55">
+        <v>20679</v>
+      </c>
+      <c r="K55">
+        <v>794</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-300</v>
+      </c>
+      <c r="N55">
+        <v>33903</v>
+      </c>
+      <c r="O55">
+        <v>68695</v>
+      </c>
+      <c r="P55">
+        <v>23473</v>
+      </c>
+      <c r="Q55">
+        <v>1513</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>87424</v>
+      </c>
+      <c r="U55">
+        <v>11572</v>
+      </c>
+      <c r="V55">
+        <v>10099</v>
+      </c>
+      <c r="W55">
+        <v>-2322</v>
+      </c>
+      <c r="X55">
+        <v>-4304</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-2981</v>
+      </c>
+      <c r="AA55">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>4612</v>
+      </c>
+      <c r="D56">
+        <v>23382</v>
+      </c>
+      <c r="E56">
+        <v>19544</v>
+      </c>
+      <c r="F56">
+        <v>15749</v>
+      </c>
+      <c r="G56">
+        <v>114246</v>
+      </c>
+      <c r="H56">
+        <v>172384</v>
+      </c>
+      <c r="I56">
+        <v>7432</v>
+      </c>
+      <c r="J56">
+        <v>20645</v>
+      </c>
+      <c r="K56">
+        <v>2558</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>45625</v>
+      </c>
+      <c r="O56">
+        <v>82600</v>
+      </c>
+      <c r="P56">
+        <v>23203</v>
+      </c>
+      <c r="Q56">
+        <v>-2903</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>128000</v>
+      </c>
+      <c r="T56">
+        <v>89784</v>
+      </c>
+      <c r="U56">
+        <v>8669</v>
+      </c>
+      <c r="V56">
+        <v>9514</v>
+      </c>
+      <c r="W56">
+        <v>-2309</v>
+      </c>
+      <c r="X56">
+        <v>-3309</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-1718</v>
+      </c>
+      <c r="AA56">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>4540</v>
+      </c>
+      <c r="D57">
+        <v>23201</v>
+      </c>
+      <c r="E57">
+        <v>12887</v>
+      </c>
+      <c r="F57">
+        <v>14928</v>
+      </c>
+      <c r="G57">
+        <v>112439</v>
+      </c>
+      <c r="H57">
+        <v>169656</v>
+      </c>
+      <c r="I57">
+        <v>6769</v>
+      </c>
+      <c r="J57">
+        <v>18472</v>
+      </c>
+      <c r="K57">
+        <v>3691</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-1500</v>
+      </c>
+      <c r="N57">
+        <v>44694</v>
+      </c>
+      <c r="O57">
+        <v>79486</v>
+      </c>
+      <c r="P57">
+        <v>23911</v>
+      </c>
+      <c r="Q57">
+        <v>-2367</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>90170</v>
+      </c>
+      <c r="U57">
+        <v>6302</v>
+      </c>
+      <c r="V57">
+        <v>8354</v>
+      </c>
+      <c r="W57">
+        <v>-2307</v>
+      </c>
+      <c r="X57">
+        <v>-2978</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-5947</v>
+      </c>
+      <c r="AA57">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>5863</v>
+      </c>
+      <c r="D58">
+        <v>26470</v>
+      </c>
+      <c r="E58">
+        <v>16186</v>
+      </c>
+      <c r="F58">
+        <v>16334</v>
+      </c>
+      <c r="G58">
+        <v>116362</v>
+      </c>
+      <c r="H58">
+        <v>174848</v>
+      </c>
+      <c r="I58">
+        <v>6932</v>
+      </c>
+      <c r="J58">
+        <v>18260</v>
+      </c>
+      <c r="K58">
+        <v>8729</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>47415</v>
+      </c>
+      <c r="O58">
+        <v>82969</v>
+      </c>
+      <c r="P58">
+        <v>28738</v>
+      </c>
+      <c r="Q58">
+        <v>124</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>91879</v>
+      </c>
+      <c r="U58">
+        <v>6426</v>
+      </c>
+      <c r="V58">
+        <v>4340</v>
+      </c>
+      <c r="W58">
+        <v>-2547</v>
+      </c>
+      <c r="X58">
+        <v>534</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-670</v>
+      </c>
+      <c r="AA58">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>4985</v>
+      </c>
+      <c r="D59">
+        <v>21729</v>
+      </c>
+      <c r="E59">
+        <v>12427</v>
+      </c>
+      <c r="F59">
+        <v>14568</v>
+      </c>
+      <c r="G59">
+        <v>118398</v>
+      </c>
+      <c r="H59">
+        <v>176683</v>
+      </c>
+      <c r="I59">
+        <v>6690</v>
+      </c>
+      <c r="J59">
+        <v>27644</v>
+      </c>
+      <c r="K59">
+        <v>1821</v>
+      </c>
+      <c r="L59">
+        <v>-6575</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>40748</v>
+      </c>
+      <c r="O59">
+        <v>86551</v>
+      </c>
+      <c r="P59">
+        <v>31964</v>
+      </c>
+      <c r="Q59">
+        <v>988</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>90132</v>
+      </c>
+      <c r="U59">
+        <v>7414</v>
+      </c>
+      <c r="V59">
+        <v>9601</v>
+      </c>
+      <c r="W59">
+        <v>-2532</v>
+      </c>
+      <c r="X59">
+        <v>-3096</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-3594</v>
+      </c>
+      <c r="AA59">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>-3195</v>
+      </c>
+      <c r="D60">
+        <v>22180</v>
+      </c>
+      <c r="E60">
+        <v>17908</v>
+      </c>
+      <c r="F60">
+        <v>14712</v>
+      </c>
+      <c r="G60">
+        <v>122797</v>
+      </c>
+      <c r="H60">
+        <v>174472</v>
+      </c>
+      <c r="I60">
+        <v>6591</v>
+      </c>
+      <c r="J60">
+        <v>27808</v>
+      </c>
+      <c r="K60">
+        <v>5077</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>49647</v>
+      </c>
+      <c r="O60">
+        <v>94389</v>
+      </c>
+      <c r="P60">
+        <v>35384</v>
+      </c>
+      <c r="Q60">
+        <v>-1819</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>118000</v>
+      </c>
+      <c r="T60">
+        <v>80083</v>
+      </c>
+      <c r="U60">
+        <v>5595</v>
+      </c>
+      <c r="V60">
+        <v>6849</v>
+      </c>
+      <c r="W60">
+        <v>-2496</v>
+      </c>
+      <c r="X60">
+        <v>-3604</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-2657</v>
+      </c>
+      <c r="AA60">
+        <v>-3195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>4902</v>
+      </c>
+      <c r="D61">
+        <v>20379</v>
+      </c>
+      <c r="E61">
+        <v>11444</v>
+      </c>
+      <c r="F61">
+        <v>13172</v>
+      </c>
+      <c r="G61">
+        <v>121656</v>
+      </c>
+      <c r="H61">
+        <v>172896</v>
+      </c>
+      <c r="I61">
+        <v>6630</v>
+      </c>
+      <c r="J61">
+        <v>27819</v>
+      </c>
+      <c r="K61">
+        <v>10152</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-1750</v>
+      </c>
+      <c r="N61">
+        <v>49399</v>
+      </c>
+      <c r="O61">
+        <v>95451</v>
+      </c>
+      <c r="P61">
+        <v>38721</v>
+      </c>
+      <c r="Q61">
+        <v>-164</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>77445</v>
+      </c>
+      <c r="U61">
+        <v>5431</v>
+      </c>
+      <c r="V61">
+        <v>8876</v>
+      </c>
+      <c r="W61">
+        <v>-2475</v>
+      </c>
+      <c r="X61">
+        <v>-3930</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-3382</v>
+      </c>
+      <c r="AA61">
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>5018</v>
+      </c>
+      <c r="D62">
+        <v>23796</v>
+      </c>
+      <c r="E62">
+        <v>14507</v>
+      </c>
+      <c r="F62">
+        <v>13924</v>
+      </c>
+      <c r="G62">
+        <v>127812</v>
+      </c>
+      <c r="H62">
+        <v>180098</v>
+      </c>
+      <c r="I62">
+        <v>6936</v>
+      </c>
+      <c r="J62">
+        <v>40679</v>
+      </c>
+      <c r="K62">
+        <v>3439</v>
+      </c>
+      <c r="L62">
+        <v>-7031</v>
+      </c>
+      <c r="M62">
+        <v>-121</v>
+      </c>
+      <c r="N62">
+        <v>42643</v>
+      </c>
+      <c r="O62">
+        <v>103318</v>
+      </c>
+      <c r="P62">
+        <v>44868</v>
+      </c>
+      <c r="Q62">
+        <v>1754</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>76780</v>
+      </c>
+      <c r="U62">
+        <v>7185</v>
+      </c>
+      <c r="V62">
+        <v>5618</v>
+      </c>
+      <c r="W62">
+        <v>-2868</v>
+      </c>
+      <c r="X62">
+        <v>-518</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-1208</v>
+      </c>
+      <c r="AA62">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>3756</v>
+      </c>
+      <c r="D63">
+        <v>20531</v>
+      </c>
+      <c r="E63">
+        <v>12247</v>
+      </c>
+      <c r="F63">
+        <v>12809</v>
+      </c>
+      <c r="G63">
+        <v>128421</v>
+      </c>
+      <c r="H63">
+        <v>181869</v>
+      </c>
+      <c r="I63">
+        <v>6759</v>
+      </c>
+      <c r="J63">
+        <v>40896</v>
+      </c>
+      <c r="K63">
+        <v>5871</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-900</v>
+      </c>
+      <c r="N63">
+        <v>44354</v>
+      </c>
+      <c r="O63">
+        <v>107063</v>
+      </c>
+      <c r="P63">
+        <v>46767</v>
+      </c>
+      <c r="Q63">
+        <v>-15</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>74806</v>
+      </c>
+      <c r="U63">
+        <v>7170</v>
+      </c>
+      <c r="V63">
+        <v>10367</v>
+      </c>
+      <c r="W63">
+        <v>-2842</v>
+      </c>
+      <c r="X63">
+        <v>-4916</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-2550</v>
+      </c>
+      <c r="AA63">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>3122</v>
+      </c>
+      <c r="D64">
+        <v>20614</v>
+      </c>
+      <c r="E64">
+        <v>18277</v>
+      </c>
+      <c r="F64">
+        <v>12635</v>
+      </c>
+      <c r="G64">
+        <v>139660</v>
+      </c>
+      <c r="H64">
+        <v>193468</v>
+      </c>
+      <c r="I64">
+        <v>6898</v>
+      </c>
+      <c r="J64">
+        <v>40557</v>
+      </c>
+      <c r="K64">
+        <v>13198</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>59357</v>
+      </c>
+      <c r="O64">
+        <v>121471</v>
+      </c>
+      <c r="P64">
+        <v>54541</v>
+      </c>
+      <c r="Q64">
+        <v>-660</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>114000</v>
+      </c>
+      <c r="T64">
+        <v>71997</v>
+      </c>
+      <c r="U64">
+        <v>6510</v>
+      </c>
+      <c r="V64">
+        <v>8464</v>
+      </c>
+      <c r="W64">
+        <v>-2821</v>
+      </c>
+      <c r="X64">
+        <v>971</v>
+      </c>
+      <c r="Y64">
+        <v>761</v>
+      </c>
+      <c r="Z64">
+        <v>-7277</v>
+      </c>
+      <c r="AA64">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>5667</v>
+      </c>
+      <c r="D65">
+        <v>21928</v>
+      </c>
+      <c r="E65">
+        <v>11129</v>
+      </c>
+      <c r="F65">
+        <v>14084</v>
+      </c>
+      <c r="G65">
+        <v>157909</v>
+      </c>
+      <c r="H65">
+        <v>212524</v>
+      </c>
+      <c r="I65">
+        <v>6296</v>
+      </c>
+      <c r="J65">
+        <v>60154</v>
+      </c>
+      <c r="K65">
+        <v>14746</v>
+      </c>
+      <c r="L65">
+        <v>-3390</v>
+      </c>
+      <c r="M65">
+        <v>-225</v>
+      </c>
+      <c r="N65">
+        <v>58810</v>
+      </c>
+      <c r="O65">
+        <v>142152</v>
+      </c>
+      <c r="P65">
+        <v>75932</v>
+      </c>
+      <c r="Q65">
+        <v>7418</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>70372</v>
+      </c>
+      <c r="U65">
+        <v>13928</v>
+      </c>
+      <c r="V65">
+        <v>11549</v>
+      </c>
+      <c r="W65">
+        <v>-2800</v>
+      </c>
+      <c r="X65">
+        <v>14329</v>
+      </c>
+      <c r="Y65">
+        <v>1000</v>
+      </c>
+      <c r="Z65">
+        <v>-16199</v>
+      </c>
+      <c r="AA65">
+        <v>5667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>6267</v>
+      </c>
+      <c r="D66">
+        <v>25826</v>
+      </c>
+      <c r="E66">
+        <v>14343</v>
+      </c>
+      <c r="F66">
+        <v>15925</v>
+      </c>
+      <c r="G66">
+        <v>144949</v>
+      </c>
+      <c r="H66">
+        <v>224610</v>
+      </c>
+      <c r="I66">
+        <v>6580</v>
+      </c>
+      <c r="J66">
+        <v>59306</v>
+      </c>
+      <c r="K66">
+        <v>26345</v>
+      </c>
+      <c r="L66">
+        <v>-3755</v>
+      </c>
+      <c r="M66">
+        <v>-4118</v>
+      </c>
+      <c r="N66">
+        <v>70787</v>
+      </c>
+      <c r="O66">
+        <v>155801</v>
+      </c>
+      <c r="P66">
+        <v>87806</v>
+      </c>
+      <c r="Q66">
+        <v>-5460</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>68809</v>
+      </c>
+      <c r="U66">
+        <v>8468</v>
+      </c>
+      <c r="V66">
+        <v>6293</v>
+      </c>
+      <c r="W66">
+        <v>-3024</v>
+      </c>
+      <c r="X66">
+        <v>3016</v>
+      </c>
+      <c r="Y66">
+        <v>1500</v>
+      </c>
+      <c r="Z66">
+        <v>10927</v>
+      </c>
+      <c r="AA66">
+        <v>6267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>5486</v>
+      </c>
+      <c r="D67">
+        <v>23212</v>
+      </c>
+      <c r="E67">
+        <v>12882</v>
+      </c>
+      <c r="F67">
+        <v>15152</v>
+      </c>
+      <c r="G67">
+        <v>146313</v>
+      </c>
+      <c r="H67">
+        <v>225017</v>
+      </c>
+      <c r="I67">
+        <v>6217</v>
+      </c>
+      <c r="J67">
+        <v>76222</v>
+      </c>
+      <c r="K67">
+        <v>7388</v>
+      </c>
+      <c r="L67">
+        <v>-1302</v>
+      </c>
+      <c r="M67">
+        <v>-211</v>
+      </c>
+      <c r="N67">
+        <v>52005</v>
+      </c>
+      <c r="O67">
+        <v>155288</v>
+      </c>
+      <c r="P67">
+        <v>85995</v>
+      </c>
+      <c r="Q67">
+        <v>-1755</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>69729</v>
+      </c>
+      <c r="U67">
+        <v>6713</v>
+      </c>
+      <c r="V67">
+        <v>10660</v>
+      </c>
+      <c r="W67">
+        <v>-3012</v>
+      </c>
+      <c r="X67">
+        <v>-6236</v>
+      </c>
+      <c r="Y67">
+        <v>1700</v>
+      </c>
+      <c r="Z67">
+        <v>-2614</v>
+      </c>
+      <c r="AA67">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>8069</v>
+      </c>
+      <c r="D68">
+        <v>25605</v>
+      </c>
+      <c r="E68">
+        <v>22431</v>
+      </c>
+      <c r="F68">
+        <v>17560</v>
+      </c>
+      <c r="G68">
+        <v>162696</v>
+      </c>
+      <c r="H68">
+        <v>250312</v>
+      </c>
+      <c r="I68">
+        <v>7390</v>
+      </c>
+      <c r="J68">
+        <v>76073</v>
+      </c>
+      <c r="K68">
+        <v>9072</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>55745</v>
+      </c>
+      <c r="O68">
+        <v>162601</v>
+      </c>
+      <c r="P68">
+        <v>95527</v>
+      </c>
+      <c r="Q68">
+        <v>950</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>124000</v>
+      </c>
+      <c r="T68">
+        <v>87711</v>
+      </c>
+      <c r="U68">
+        <v>7663</v>
+      </c>
+      <c r="V68">
+        <v>11005</v>
+      </c>
+      <c r="W68">
+        <v>-3009</v>
+      </c>
+      <c r="X68">
+        <v>-2701</v>
+      </c>
+      <c r="Y68">
+        <v>7797</v>
+      </c>
+      <c r="Z68">
+        <v>-4625</v>
+      </c>
+      <c r="AA68">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>6576</v>
+      </c>
+      <c r="D69">
+        <v>24538</v>
+      </c>
+      <c r="E69">
+        <v>14561</v>
+      </c>
+      <c r="F69">
+        <v>16260</v>
+      </c>
+      <c r="G69">
+        <v>161031</v>
+      </c>
+      <c r="H69">
+        <v>249097</v>
+      </c>
+      <c r="I69">
+        <v>6866</v>
+      </c>
+      <c r="J69">
+        <v>76255</v>
+      </c>
+      <c r="K69">
+        <v>8373</v>
+      </c>
+      <c r="L69">
+        <v>-3710</v>
+      </c>
+      <c r="M69">
+        <v>-1169</v>
+      </c>
+      <c r="N69">
+        <v>51615</v>
+      </c>
+      <c r="O69">
+        <v>159450</v>
+      </c>
+      <c r="P69">
+        <v>95971</v>
+      </c>
+      <c r="Q69">
+        <v>-779</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>89647</v>
+      </c>
+      <c r="U69">
+        <v>6884</v>
+      </c>
+      <c r="V69">
+        <v>12440</v>
+      </c>
+      <c r="W69">
+        <v>-3003</v>
+      </c>
+      <c r="X69">
+        <v>-6341</v>
+      </c>
+      <c r="Y69">
+        <v>8895</v>
+      </c>
+      <c r="Z69">
+        <v>-4699</v>
+      </c>
+      <c r="AA69">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-6302</v>
+      </c>
+      <c r="D70">
+        <v>28918</v>
+      </c>
+      <c r="E70">
+        <v>18428</v>
+      </c>
+      <c r="F70">
+        <v>17854</v>
+      </c>
+      <c r="G70">
+        <v>167633</v>
+      </c>
+      <c r="H70">
+        <v>256003</v>
+      </c>
+      <c r="I70">
+        <v>7850</v>
+      </c>
+      <c r="J70">
+        <v>73348</v>
+      </c>
+      <c r="K70">
+        <v>12492</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-3327</v>
+      </c>
+      <c r="N70">
+        <v>58099</v>
+      </c>
+      <c r="O70">
+        <v>177643</v>
+      </c>
+      <c r="P70">
+        <v>100171</v>
+      </c>
+      <c r="Q70">
+        <v>5975</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>78360</v>
+      </c>
+      <c r="U70">
+        <v>12859</v>
+      </c>
+      <c r="V70">
+        <v>7875</v>
+      </c>
+      <c r="W70">
+        <v>-3238</v>
+      </c>
+      <c r="X70">
+        <v>-1552</v>
+      </c>
+      <c r="Y70">
+        <v>9386</v>
+      </c>
+      <c r="Z70">
+        <v>2459</v>
+      </c>
+      <c r="AA70">
+        <v>-6302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>7424</v>
+      </c>
+      <c r="D71">
+        <v>26819</v>
+      </c>
+      <c r="E71">
+        <v>17208</v>
+      </c>
+      <c r="F71">
+        <v>17550</v>
+      </c>
+      <c r="G71">
+        <v>156659</v>
+      </c>
+      <c r="H71">
+        <v>245497</v>
+      </c>
+      <c r="I71">
+        <v>7623</v>
+      </c>
+      <c r="J71">
+        <v>73480</v>
+      </c>
+      <c r="K71">
+        <v>230</v>
+      </c>
+      <c r="L71">
+        <v>-7373</v>
+      </c>
+      <c r="M71">
+        <v>-4883</v>
+      </c>
+      <c r="N71">
+        <v>46133</v>
+      </c>
+      <c r="O71">
+        <v>166258</v>
+      </c>
+      <c r="P71">
+        <v>88621</v>
+      </c>
+      <c r="Q71">
+        <v>-3638</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>79239</v>
+      </c>
+      <c r="U71">
+        <v>9221</v>
+      </c>
+      <c r="V71">
+        <v>12151</v>
+      </c>
+      <c r="W71">
+        <v>-3232</v>
+      </c>
+      <c r="X71">
+        <v>-19658</v>
+      </c>
+      <c r="Y71">
+        <v>9901</v>
+      </c>
+      <c r="Z71">
+        <v>7045</v>
+      </c>
+      <c r="AA71">
+        <v>7424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>8873</v>
+      </c>
+      <c r="D72">
+        <v>30085</v>
+      </c>
+      <c r="E72">
+        <v>26481</v>
+      </c>
+      <c r="F72">
+        <v>20343</v>
+      </c>
+      <c r="G72">
+        <v>169662</v>
+      </c>
+      <c r="H72">
+        <v>258848</v>
+      </c>
+      <c r="I72">
+        <v>8617</v>
+      </c>
+      <c r="J72">
+        <v>72242</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>58488</v>
+      </c>
+      <c r="O72">
+        <v>176130</v>
+      </c>
+      <c r="P72">
+        <v>87508</v>
+      </c>
+      <c r="Q72">
+        <v>2725</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>131000</v>
+      </c>
+      <c r="T72">
+        <v>82718</v>
+      </c>
+      <c r="U72">
+        <v>11946</v>
+      </c>
+      <c r="V72">
+        <v>11418</v>
+      </c>
+      <c r="W72">
+        <v>-3226</v>
+      </c>
+      <c r="X72">
+        <v>-6039</v>
+      </c>
+      <c r="Y72">
+        <v>9693</v>
+      </c>
+      <c r="Z72">
+        <v>1752</v>
+      </c>
+      <c r="AA72">
+        <v>8873</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>8824</v>
+      </c>
+      <c r="D73">
+        <v>29084</v>
+      </c>
+      <c r="E73">
+        <v>17390</v>
+      </c>
+      <c r="F73">
+        <v>19179</v>
+      </c>
+      <c r="G73">
+        <v>164195</v>
+      </c>
+      <c r="H73">
+        <v>257619</v>
+      </c>
+      <c r="I73">
+        <v>8511</v>
+      </c>
+      <c r="J73">
+        <v>69733</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>56277</v>
+      </c>
+      <c r="O73">
+        <v>171652</v>
+      </c>
+      <c r="P73">
+        <v>87928</v>
+      </c>
+      <c r="Q73">
+        <v>3191</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>85967</v>
+      </c>
+      <c r="U73">
+        <v>15137</v>
+      </c>
+      <c r="V73">
+        <v>13657</v>
+      </c>
+      <c r="W73">
+        <v>-3220</v>
+      </c>
+      <c r="X73">
+        <v>-7384</v>
+      </c>
+      <c r="Y73">
+        <v>10123</v>
+      </c>
+      <c r="Z73">
+        <v>894</v>
+      </c>
+      <c r="AA73">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>8420</v>
+      </c>
+      <c r="D74">
+        <v>32471</v>
+      </c>
+      <c r="E74">
+        <v>19680</v>
+      </c>
+      <c r="F74">
+        <v>20048</v>
+      </c>
+      <c r="G74">
+        <v>156874</v>
+      </c>
+      <c r="H74">
+        <v>258859</v>
+      </c>
+      <c r="I74">
+        <v>7563</v>
+      </c>
+      <c r="J74">
+        <v>69653</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-3000</v>
+      </c>
+      <c r="N74">
+        <v>50318</v>
+      </c>
+      <c r="O74">
+        <v>166731</v>
+      </c>
+      <c r="P74">
+        <v>85483</v>
+      </c>
+      <c r="Q74">
+        <v>-8499</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>92128</v>
+      </c>
+      <c r="U74">
+        <v>6638</v>
+      </c>
+      <c r="V74">
+        <v>8900</v>
+      </c>
+      <c r="W74">
+        <v>-3544</v>
+      </c>
+      <c r="X74">
+        <v>-13216</v>
+      </c>
+      <c r="Y74">
+        <v>10648</v>
+      </c>
+      <c r="Z74">
+        <v>1100</v>
+      </c>
+      <c r="AA74">
+        <v>8420</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>8809</v>
+      </c>
+      <c r="D75">
+        <v>30571</v>
+      </c>
+      <c r="E75">
+        <v>19269</v>
+      </c>
+      <c r="F75">
+        <v>20401</v>
+      </c>
+      <c r="G75">
+        <v>159887</v>
+      </c>
+      <c r="H75">
+        <v>263281</v>
+      </c>
+      <c r="I75">
+        <v>7544</v>
+      </c>
+      <c r="J75">
+        <v>66585</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>53861</v>
+      </c>
+      <c r="O75">
+        <v>168417</v>
+      </c>
+      <c r="P75">
+        <v>86343</v>
+      </c>
+      <c r="Q75">
+        <v>4574</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>94864</v>
+      </c>
+      <c r="U75">
+        <v>11212</v>
+      </c>
+      <c r="V75">
+        <v>13520</v>
+      </c>
+      <c r="W75">
+        <v>-3526</v>
+      </c>
+      <c r="X75">
+        <v>-7601</v>
+      </c>
+      <c r="Y75">
+        <v>11500</v>
+      </c>
+      <c r="Z75">
+        <v>1471</v>
+      </c>
+      <c r="AA75">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>13187</v>
+      </c>
+      <c r="D76">
+        <v>33717</v>
+      </c>
+      <c r="E76">
+        <v>29524</v>
+      </c>
+      <c r="F76">
+        <v>23305</v>
+      </c>
+      <c r="G76">
+        <v>175552</v>
+      </c>
+      <c r="H76">
+        <v>286556</v>
+      </c>
+      <c r="I76">
+        <v>9382</v>
+      </c>
+      <c r="J76">
+        <v>66662</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>69420</v>
+      </c>
+      <c r="O76">
+        <v>184226</v>
+      </c>
+      <c r="P76">
+        <v>86455</v>
+      </c>
+      <c r="Q76">
+        <v>144</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>144000</v>
+      </c>
+      <c r="T76">
+        <v>102330</v>
+      </c>
+      <c r="U76">
+        <v>11356</v>
+      </c>
+      <c r="V76">
+        <v>16108</v>
+      </c>
+      <c r="W76">
+        <v>-3521</v>
+      </c>
+      <c r="X76">
+        <v>-8686</v>
+      </c>
+      <c r="Y76">
+        <v>12445</v>
+      </c>
+      <c r="Z76">
+        <v>-2925</v>
+      </c>
+      <c r="AA76">
+        <v>13187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>10678</v>
+      </c>
+      <c r="D77">
+        <v>33055</v>
+      </c>
+      <c r="E77">
+        <v>19087</v>
+      </c>
+      <c r="F77">
+        <v>22649</v>
+      </c>
+      <c r="G77">
+        <v>165896</v>
+      </c>
+      <c r="H77">
+        <v>278955</v>
+      </c>
+      <c r="I77">
+        <v>8574</v>
+      </c>
+      <c r="J77">
+        <v>66478</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-2500</v>
+      </c>
+      <c r="N77">
+        <v>58118</v>
+      </c>
+      <c r="O77">
+        <v>172894</v>
+      </c>
+      <c r="P77">
+        <v>85570</v>
+      </c>
+      <c r="Q77">
+        <v>1761</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>106061</v>
+      </c>
+      <c r="U77">
+        <v>13117</v>
+      </c>
+      <c r="V77">
+        <v>13818</v>
+      </c>
+      <c r="W77">
+        <v>-3510</v>
+      </c>
+      <c r="X77">
+        <v>-10209</v>
+      </c>
+      <c r="Y77">
+        <v>14120</v>
+      </c>
+      <c r="Z77">
+        <v>2071</v>
+      </c>
+      <c r="AA77">
+        <v>10678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>11649</v>
+      </c>
+      <c r="D78">
+        <v>36906</v>
+      </c>
+      <c r="E78">
+        <v>23525</v>
+      </c>
+      <c r="F78">
+        <v>24548</v>
+      </c>
+      <c r="G78">
+        <v>167074</v>
+      </c>
+      <c r="H78">
+        <v>282794</v>
+      </c>
+      <c r="I78">
+        <v>8811</v>
+      </c>
+      <c r="J78">
+        <v>63361</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-18</v>
+      </c>
+      <c r="N78">
+        <v>59640</v>
+      </c>
+      <c r="O78">
+        <v>172685</v>
+      </c>
+      <c r="P78">
+        <v>87147</v>
+      </c>
+      <c r="Q78">
+        <v>-4253</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>110109</v>
+      </c>
+      <c r="U78">
+        <v>8864</v>
+      </c>
+      <c r="V78">
+        <v>10680</v>
+      </c>
+      <c r="W78">
+        <v>-3886</v>
+      </c>
+      <c r="X78">
+        <v>-8915</v>
+      </c>
+      <c r="Y78">
+        <v>15459</v>
+      </c>
+      <c r="Z78">
+        <v>-2411</v>
+      </c>
+      <c r="AA78">
+        <v>11649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>10752</v>
+      </c>
+      <c r="D79">
+        <v>35021</v>
+      </c>
+      <c r="E79">
+        <v>22699</v>
+      </c>
+      <c r="F79">
+        <v>24046</v>
+      </c>
+      <c r="G79">
+        <v>170505</v>
+      </c>
+      <c r="H79">
+        <v>285449</v>
+      </c>
+      <c r="I79">
+        <v>9246</v>
+      </c>
+      <c r="J79">
+        <v>62862</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-3000</v>
+      </c>
+      <c r="N79">
+        <v>58707</v>
+      </c>
+      <c r="O79">
+        <v>170948</v>
+      </c>
+      <c r="P79">
+        <v>84025</v>
+      </c>
+      <c r="Q79">
+        <v>2846</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>114501</v>
+      </c>
+      <c r="U79">
+        <v>11710</v>
+      </c>
+      <c r="V79">
+        <v>17504</v>
+      </c>
+      <c r="W79">
+        <v>-3876</v>
+      </c>
+      <c r="X79">
+        <v>-14645</v>
+      </c>
+      <c r="Y79">
+        <v>15388</v>
+      </c>
+      <c r="Z79">
+        <v>4147</v>
+      </c>
+      <c r="AA79">
+        <v>10752</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>11202</v>
+      </c>
+      <c r="D80">
+        <v>38033</v>
+      </c>
+      <c r="E80">
+        <v>32011</v>
+      </c>
+      <c r="F80">
+        <v>25694</v>
+      </c>
+      <c r="G80">
+        <v>181915</v>
+      </c>
+      <c r="H80">
+        <v>301311</v>
+      </c>
+      <c r="I80">
+        <v>12530</v>
+      </c>
+      <c r="J80">
+        <v>59578</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>72310</v>
+      </c>
+      <c r="O80">
+        <v>183007</v>
+      </c>
+      <c r="P80">
+        <v>82110</v>
+      </c>
+      <c r="Q80">
+        <v>1866</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>163000</v>
+      </c>
+      <c r="T80">
+        <v>118304</v>
+      </c>
+      <c r="U80">
+        <v>13576</v>
+      </c>
+      <c r="V80">
+        <v>18673</v>
+      </c>
+      <c r="W80">
+        <v>-3865</v>
+      </c>
+      <c r="X80">
+        <v>-12262</v>
+      </c>
+      <c r="Y80">
+        <v>16627</v>
+      </c>
+      <c r="Z80">
+        <v>3173</v>
+      </c>
+      <c r="AA80">
+        <v>11202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>13893</v>
+      </c>
+      <c r="D81">
+        <v>37154</v>
+      </c>
+      <c r="E81">
+        <v>22851</v>
+      </c>
+      <c r="F81">
+        <v>26152</v>
+      </c>
+      <c r="G81">
+        <v>177077</v>
+      </c>
+      <c r="H81">
+        <v>301001</v>
+      </c>
+      <c r="I81">
+        <v>12509</v>
+      </c>
+      <c r="J81">
+        <v>57055</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>70056</v>
+      </c>
+      <c r="O81">
+        <v>177609</v>
+      </c>
+      <c r="P81">
+        <v>83216</v>
+      </c>
+      <c r="Q81">
+        <v>3629</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>123392</v>
+      </c>
+      <c r="U81">
+        <v>17205</v>
+      </c>
+      <c r="V81">
+        <v>19335</v>
+      </c>
+      <c r="W81">
+        <v>-3856</v>
+      </c>
+      <c r="X81">
+        <v>-10289</v>
+      </c>
+      <c r="Y81">
+        <v>17324</v>
+      </c>
+      <c r="Z81">
+        <v>2100</v>
+      </c>
+      <c r="AA81">
+        <v>13893</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>15463</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>43076</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>27312</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>28882</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>173973</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>304137</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>12770</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>55136</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-3250</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>67486</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>173901</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>82782</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-2773</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>130236</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>14432</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>12516</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-4230</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-13634</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>19694</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>2593</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>15463</v>
       </c>
     </row>
